--- a/OriEval.xlsx
+++ b/OriEval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\seqinf_detection_replication_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4109E9F-C642-406D-BA6F-A59E993E0AFA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BB19C-CE72-4EE3-BF55-BF3B10BA66EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15528" yWindow="60" windowWidth="14796" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="170">
   <si>
     <t>Accession Number</t>
   </si>
@@ -426,15 +426,134 @@
   </si>
   <si>
     <t>StdDev</t>
+  </si>
+  <si>
+    <t>Rev Comp Motif in zoom region (&gt;= -10)</t>
+  </si>
+  <si>
+    <t>OVERVIEW STATISTICS</t>
+  </si>
+  <si>
+    <t>Strain/Family</t>
+  </si>
+  <si>
+    <t>Difference to
+DoriC min</t>
+  </si>
+  <si>
+    <t>Difference to
+DoriC oriStart</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Vribrio cholerae</t>
+  </si>
+  <si>
+    <t>Salmonella enterica</t>
+  </si>
+  <si>
+    <t>Thermotoga</t>
+  </si>
+  <si>
+    <t>Wigglesworthia glossinidia</t>
+  </si>
+  <si>
+    <t>237 ± 185</t>
+  </si>
+  <si>
+    <t>1 ± 1</t>
+  </si>
+  <si>
+    <t>70 ± 26</t>
+  </si>
+  <si>
+    <t>0 ± 1</t>
+  </si>
+  <si>
+    <t>Known-OriC</t>
+  </si>
+  <si>
+    <t>105 ± 28</t>
+  </si>
+  <si>
+    <t>1085 ± 1073</t>
+  </si>
+  <si>
+    <t>References (E.coli)</t>
+  </si>
+  <si>
+    <t>164 ± 189</t>
+  </si>
+  <si>
+    <t>523 ± 881</t>
+  </si>
+  <si>
+    <t>2 ± 0</t>
+  </si>
+  <si>
+    <t>186 ± 207</t>
+  </si>
+  <si>
+    <t>600 ± 645</t>
+  </si>
+  <si>
+    <t>2 ± 1</t>
+  </si>
+  <si>
+    <t>1099008 ± 1895994</t>
+  </si>
+  <si>
+    <t>2086124 ± 1806388</t>
+  </si>
+  <si>
+    <t>191 ± 250</t>
+  </si>
+  <si>
+    <t>177 ± 227</t>
+  </si>
+  <si>
+    <t>152 ± 117</t>
+  </si>
+  <si>
+    <t>534 ± 165</t>
+  </si>
+  <si>
+    <t>3 ± 1</t>
+  </si>
+  <si>
+    <t>115 ± 98</t>
+  </si>
+  <si>
+    <t>3497 ± 3361</t>
+  </si>
+  <si>
+    <t>Motifs in OriC region
+ DoriC</t>
+  </si>
+  <si>
+    <t>Dist to Motif Number of DoriC</t>
+  </si>
+  <si>
+    <t>Dist of Ref Comp Motif to DoriC</t>
+  </si>
+  <si>
+    <t>Avg Number of Rev Comp Motifs in zoom region 
+(score ≤ -10)</t>
+  </si>
+  <si>
+    <t>Average Difference 
+to Number of Motifs in DoriC (oriC region)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Number of Motifs in zoom region (score ≥ 10) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -500,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,20 +698,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,13 +716,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -940,7 +1107,8 @@
     <col min="2" max="2" width="58.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="10" width="11.5546875" customWidth="1"/>
@@ -984,13 +1152,21 @@
       <c r="K1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:18">
@@ -1041,7 +1217,7 @@
         <f>IF(AND(C3&gt;=E3,C3&lt;=F3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="30">
         <f>ABS(D3-C3)</f>
         <v>1880</v>
       </c>
@@ -1052,10 +1228,20 @@
       <c r="K3" s="23">
         <v>2</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="L3" s="23">
+        <v>2</v>
+      </c>
+      <c r="M3" s="23">
+        <v>4</v>
+      </c>
+      <c r="N3" s="20">
+        <f>ABS(M3-K3)</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="20">
+        <f>ABS(M3-L3)</f>
+        <v>2</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="29"/>
@@ -1083,24 +1269,34 @@
         <v>3654135</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H29" si="0">IF(AND(C4&gt;=E4,C4&lt;=F4),1,0)</f>
+        <f t="shared" ref="H4:H30" si="0">IF(AND(C4&gt;=E4,C4&lt;=F4),1,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>ABS(D4-C4)</f>
         <v>124</v>
       </c>
-      <c r="J4" s="32">
-        <f t="shared" ref="J4:J76" si="1">ABS(E4-C4)</f>
+      <c r="J4" s="30">
+        <f t="shared" ref="J4:J78" si="1">ABS(E4-C4)</f>
         <v>3628499</v>
       </c>
       <c r="K4" s="23">
         <v>0</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <v>3</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" ref="N4:N5" si="2">ABS(M4-K4)</f>
+        <v>3</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O5" si="3">ABS(M4-L4)</f>
+        <v>3</v>
+      </c>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="29"/>
@@ -1140,12 +1336,22 @@
         <v>326</v>
       </c>
       <c r="K5" s="23">
-        <v>2</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="23">
+        <v>2</v>
+      </c>
+      <c r="M5" s="23">
+        <v>3</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="29"/>
@@ -1158,20 +1364,23 @@
       <c r="H6" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="38">
         <f>AVERAGE(I3:I5)</f>
         <v>696.33333333333337</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="38">
         <f>AVERAGE(J3:J5)</f>
         <v>1210222.6666666667</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="38">
         <f>AVERAGE(K3:K5)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="49">
+        <f>AVERAGE(L3:L5)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
@@ -1186,42 +1395,63 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="39">
         <f>AVERAGE(I4:I5)</f>
         <v>104.5</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="39">
         <f>AVERAGE(J3,J5)</f>
         <v>1084.5</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="K7" s="48">
+        <f>K6</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="48">
+        <f>L6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="57">
+        <f>AVERAGE(N3:O5)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="O7" s="57"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="A8" s="15"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="39">
+        <f>STDEV(I4:I5)</f>
+        <v>27.577164466275352</v>
+      </c>
+      <c r="J8" s="39">
+        <f>STDEV(J3,J5)</f>
+        <v>1072.6809870599925</v>
+      </c>
+      <c r="K8" s="48">
+        <f>STDEV(K3:K5)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="48">
+        <f>STDEV(L3:L5)</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="M8" s="23"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
       <c r="P8" s="20"/>
@@ -1229,1343 +1459,1804 @@
       <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="29"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="16">
         <v>3925500</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>3923620</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>3923657</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>3924034</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="16">
         <v>4641652</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="32">
-        <f>ABS(D9-C9)</f>
+      <c r="I10" s="30">
+        <f>ABS(D10-C10)</f>
         <v>1880</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>1843</v>
       </c>
-      <c r="K9" s="23">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
+      <c r="K10" s="23">
+        <v>2</v>
+      </c>
+      <c r="L10" s="23">
+        <v>2</v>
+      </c>
+      <c r="M10" s="23">
+        <v>4</v>
+      </c>
+      <c r="N10" s="20">
+        <f>ABS(M10-K10)</f>
+        <v>2</v>
+      </c>
+      <c r="O10" s="20">
+        <f>ABS(M10-L10)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="29"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>95</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4719100</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>4719041</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>4719078</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>4719455</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>5498578</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <f>ABS(D10-C10)</f>
+      <c r="I11" s="4">
+        <f>ABS(D11-C11)</f>
         <v>59</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K10" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
+      <c r="K11" s="24">
+        <v>2</v>
+      </c>
+      <c r="L11" s="24">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" ref="N11:N14" si="4">ABS(M11-K11)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" ref="O11:O14" si="5">ABS(M11-L11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4529000</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>4529067</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>4529104</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>4529481</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>5132068</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f>ABS(D11-C11)</f>
+      <c r="I12" s="4">
+        <f>ABS(D12-C12)</f>
         <v>67</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="K11" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
+      <c r="K12" s="24">
+        <v>2</v>
+      </c>
+      <c r="L12" s="24">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3946600</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>3946684</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>3946721</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>3947098</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>4747819</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="4">
-        <f>ABS(D12-C12)</f>
+      <c r="I13" s="4">
+        <f>ABS(D13-C13)</f>
         <v>84</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="K12" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
+      <c r="K13" s="24">
+        <v>2</v>
+      </c>
+      <c r="L13" s="24">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>400</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>847</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>5225716</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>5226093</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>5273097</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
-        <f>ABS(D13-C13)</f>
+      <c r="I14" s="4">
+        <f>ABS(D14-C14)</f>
         <v>447</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J14" s="30">
         <f t="shared" si="1"/>
         <v>5225316</v>
       </c>
-      <c r="K13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="25" t="s">
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="24">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="30">
-        <f>AVERAGE(I9:I13)</f>
+      <c r="I15" s="38">
+        <f>AVERAGE(I10:I14)</f>
         <v>507.4</v>
       </c>
-      <c r="J14" s="30">
-        <f t="shared" ref="J14:K14" si="2">AVERAGE(J9:J13)</f>
+      <c r="J15" s="38">
+        <f t="shared" ref="J15:K15" si="6">AVERAGE(J10:J14)</f>
         <v>1045481.2</v>
       </c>
-      <c r="K14" s="30">
-        <f t="shared" si="2"/>
+      <c r="K15" s="38">
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="28.8">
-      <c r="H15" s="33" t="s">
+      <c r="L15" s="50">
+        <f>AVERAGE(L10:L14)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="28.8">
+      <c r="H16" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="31">
-        <f>AVERAGE(I10:I13)</f>
+      <c r="I16" s="39">
+        <f>AVERAGE(I11:I14)</f>
         <v>164.25</v>
       </c>
-      <c r="J15" s="30">
-        <f>AVERAGE(J9:J12)</f>
+      <c r="J16" s="39">
+        <f>AVERAGE(J10:J13)</f>
         <v>522.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="17" t="s">
+      <c r="K16" s="40">
+        <f>K15</f>
+        <v>1.8</v>
+      </c>
+      <c r="L16" s="40">
+        <f>L15</f>
+        <v>1.8</v>
+      </c>
+      <c r="N16" s="57">
+        <f>AVERAGE(N10:O14)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O16" s="57"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="17" t="s">
+      <c r="H17" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="39">
+        <f>STDEV(I11:I14)</f>
+        <v>188.78802045327629</v>
+      </c>
+      <c r="J17" s="39">
+        <f>STDEV(J10:J13)</f>
+        <v>881.3937825966326</v>
+      </c>
+      <c r="K17" s="40">
+        <f>STDEV(K10:K14)</f>
+        <v>0.44721359549995815</v>
+      </c>
+      <c r="L17" s="40">
+        <f>STDEV(L10:L14)</f>
+        <v>0.44721359549995815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="15" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C19" s="16">
         <v>3925500</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>3923620</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>3923657</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>3924034</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="16">
         <v>4641652</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="32">
-        <f>ABS(D18-C18)</f>
+      <c r="I19" s="30">
+        <f t="shared" ref="I19:I30" si="7">ABS(D19-C19)</f>
         <v>1880</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>1843</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <f>ABS(M19-K19)</f>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f>ABS(M19-L19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>4719100</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>4719041</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>4719078</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>4719455</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>5498578</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <f>ABS(D19-C19)</f>
+      <c r="I20" s="4">
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N30" si="8">ABS(M20-K20)</f>
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O30" si="9">ABS(M20-L20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>4529000</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>4529067</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>4529104</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>4529481</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>5132068</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4">
-        <f>ABS(D20-C20)</f>
+      <c r="I21" s="4">
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3946600</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>3946684</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>3946721</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>3947098</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>4747819</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="4">
-        <f>ABS(D21-C21)</f>
+      <c r="I22" s="4">
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>400</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>847</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>5225716</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>5226093</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>5273097</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="4">
-        <f>ABS(D22-C22)</f>
+      <c r="I23" s="4">
+        <f t="shared" si="7"/>
         <v>447</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J23" s="30">
         <f t="shared" si="1"/>
         <v>5225316</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
         <v>100</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>3821700</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>3821722</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>3932902</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>3933279</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>4607202</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="4">
-        <f>ABS(D23-C23)</f>
+      <c r="I24" s="4">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J24" s="30">
         <f t="shared" si="1"/>
         <v>111202</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>4309800</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>4309863</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>3740583</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>3740960</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>4369232</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
-        <f>ABS(D24-C24)</f>
+      <c r="I25" s="4">
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J25" s="30">
         <f t="shared" si="1"/>
         <v>569217</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>4083700</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>4084364</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>4083788</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>4084165</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>4857450</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="4">
-        <f>ABS(D25-C25)</f>
+      <c r="I26" s="4">
+        <f t="shared" si="7"/>
         <v>664</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>3764800</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>3764856</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>3765058</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>3765435</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>4809037</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="4">
-        <f>ABS(D26-C26)</f>
+      <c r="I27" s="4">
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="K26">
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
         <v>106</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>107</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>5288200</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>5288543</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>5286982</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>5287355</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>5314581</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="4">
-        <f>ABS(D27-C27)</f>
+      <c r="I28" s="4">
+        <f t="shared" si="7"/>
         <v>343</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>1218</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1495100</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1495199</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>1496150</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1496532</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>5280350</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="4">
-        <f>ABS(D28-C28)</f>
+      <c r="I29" s="4">
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>700</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>845</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>381</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>5333942</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="4">
-        <f>ABS(D29-C29)</f>
+      <c r="I30" s="4">
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="H30" s="25" t="s">
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="H31" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="31">
-        <f>AVERAGE(I18:I29)</f>
+      <c r="I31" s="38">
+        <f>AVERAGE(I19:I30)</f>
         <v>327.41666666666669</v>
       </c>
-      <c r="J30" s="31">
-        <f t="shared" ref="J30:K30" si="3">AVERAGE(J18:J29)</f>
+      <c r="J31" s="38">
+        <f t="shared" ref="J31:K31" si="10">AVERAGE(J19:J30)</f>
         <v>492594.83333333331</v>
       </c>
-      <c r="K30" s="31">
-        <f t="shared" si="3"/>
+      <c r="K31" s="38">
+        <f>AVERAGE(K19:K30)</f>
+        <v>1.5</v>
+      </c>
+      <c r="L31" s="53">
+        <f>AVERAGE(L19:L30)</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8">
-      <c r="H31" s="33" t="s">
+    <row r="32" spans="1:15" ht="28.8">
+      <c r="H32" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="34">
-        <f>AVERAGE(I19:I29)</f>
+      <c r="I32" s="39">
+        <f>AVERAGE(I20:I30)</f>
         <v>186.27272727272728</v>
       </c>
-      <c r="J31" s="34">
-        <f>AVERAGE(J18,J19,J20,J21,J25,J26,J27,J28,J29)</f>
+      <c r="J32" s="39">
+        <f>AVERAGE(J19,J20,J21,J22,J26,J27,J28,J29,J30)</f>
         <v>600.33333333333337</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="17" t="s">
+      <c r="K32" s="40">
+        <f>K31</f>
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="40">
+        <f>L31</f>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="N32" s="58">
+        <f>AVERAGE(N19:O30)</f>
+        <v>2.2916666666666665</v>
+      </c>
+      <c r="O32" s="58"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="H33" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="39">
+        <f>STDEV(I20:I30)</f>
+        <v>207.39387209321828</v>
+      </c>
+      <c r="J33" s="39">
+        <f>STDEV(J19,J20,J21,J22,J26,J27,J28,J29,J30)</f>
+        <v>644.97306145295715</v>
+      </c>
+      <c r="K33" s="40">
+        <f>STDEV(K19:K30)</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="40">
+        <f>STDEV(L19:L30)</f>
+        <v>0.99620491989562199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="19" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>2961047</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>234</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>2961149</v>
       </c>
-      <c r="H33" s="21">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
-        <f>ABS(D33-C33)</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="21">
+      <c r="H35" s="21">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <f>ABS(D35-C35)</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="21">
         <f t="shared" si="1"/>
         <v>2961047</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <f>ABS(M35-K35)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>ABS(M35-L35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>116</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>2897200</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>2905915</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>2906069</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>312</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>2897536</v>
       </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <f>ABS(D34-C34)</f>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f>ABS(D36-C36)</f>
         <v>8715</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="1"/>
         <v>8869</v>
       </c>
-      <c r="K34" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" t="s">
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>3</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:N37" si="11">ABS(M36-K36)</f>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:O37" si="12">ABS(M36-L36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>118</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>3288308</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>3288455</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>370</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>3288558</v>
       </c>
-      <c r="H35" s="21">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4">
-        <f>ABS(D35-C35)</f>
+      <c r="H37" s="21">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <f>ABS(D37-C37)</f>
         <v>3288308</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J37" s="21">
         <f t="shared" si="1"/>
         <v>3288455</v>
       </c>
-      <c r="K35">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
         <v>3</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
-      <c r="H36" s="25" t="s">
+    <row r="38" spans="1:16">
+      <c r="H38" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="30">
-        <f>AVERAGE(I33:I35)</f>
+      <c r="I38" s="38">
+        <f>AVERAGE(I35:I37)</f>
         <v>1099008</v>
       </c>
-      <c r="J36" s="31">
-        <f t="shared" ref="J36:K36" si="4">AVERAGE(J33:J35)</f>
+      <c r="J38" s="38">
+        <f t="shared" ref="J38:K38" si="13">AVERAGE(J35:J37)</f>
         <v>2086123.6666666667</v>
       </c>
-      <c r="K36" s="31">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="17" t="s">
+      <c r="K38" s="38">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="L38" s="51">
+        <f>AVERAGE(L35:L37)</f>
+        <v>3</v>
+      </c>
+      <c r="N38" s="59">
+        <f>AVERAGE(N35:O37)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O38" s="59"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="H39" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="38">
+        <f>STDEV(I35:I37)</f>
+        <v>1895994.422710415</v>
+      </c>
+      <c r="J39" s="38">
+        <f>STDEV(J35:J37)</f>
+        <v>1806388.4444541084</v>
+      </c>
+      <c r="K39" s="53">
+        <f>STDEV(K35:K37)</f>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="L39" s="43">
+        <f>STDEV(L35:L37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="4" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C41" s="4">
         <v>3925500</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D41" s="4">
         <v>3923620</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="4">
         <v>3923657</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F41" s="4">
         <v>3924034</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G41" s="4">
         <v>4641652</v>
       </c>
-      <c r="H39" s="4">
-        <f>IF(AND(C39&gt;=E39,C39&lt;=F39),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="32">
-        <f t="shared" ref="I39:I48" si="5">ABS(D39-C39)</f>
+      <c r="H41" s="4">
+        <f>IF(AND(C41&gt;=E41,C41&lt;=F41),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="30">
+        <f t="shared" ref="I41:I50" si="14">ABS(D41-C41)</f>
         <v>1880</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J41" s="30">
         <f t="shared" si="1"/>
         <v>1843</v>
       </c>
-      <c r="K39" s="4">
-        <v>2</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="4" t="s">
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2</v>
+      </c>
+      <c r="M41" s="12">
+        <v>4</v>
+      </c>
+      <c r="N41" s="13">
+        <f>ABS(M41-K41)</f>
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f>ABS(M41-L41)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C42" s="4">
         <v>4529000</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D42" s="4">
         <v>4529067</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E42" s="4">
         <v>4529104</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F42" s="4">
         <v>4529481</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G42" s="4">
         <v>5132068</v>
       </c>
-      <c r="H40" s="4">
-        <f t="shared" ref="H40:H47" si="6">IF(AND(C40&gt;=E40,C40&lt;=F40),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="5"/>
+      <c r="H42" s="4">
+        <f t="shared" ref="H42:H49" si="15">IF(AND(C42&gt;=E42,C42&lt;=F42),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J42" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="K40" s="4">
-        <v>2</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="4" t="s">
+      <c r="K42" s="4">
+        <v>2</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>4</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" ref="N42:N50" si="16">ABS(M42-K42)</f>
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O50" si="17">ABS(M42-L42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C43" s="4">
         <v>3946600</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D43" s="4">
         <v>3946684</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <v>3946721</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F43" s="4">
         <v>3947098</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G43" s="4">
         <v>4747819</v>
       </c>
-      <c r="H41" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="5"/>
+      <c r="H43" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J43" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="K41" s="4">
-        <v>2</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="4" t="s">
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2</v>
+      </c>
+      <c r="M43" s="12">
+        <v>4</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C44" s="4">
         <v>400</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D44" s="4">
         <v>847</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E44" s="4">
         <v>5225716</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F44" s="4">
         <v>5226093</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G44" s="4">
         <v>5273097</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="5"/>
+      <c r="H44" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="14"/>
         <v>447</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J44" s="30">
         <f t="shared" si="1"/>
         <v>5225316</v>
       </c>
-      <c r="K42" s="4">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="4" t="s">
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="12">
+        <v>4</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C45" s="4">
         <v>4719100</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D45" s="4">
         <v>4719041</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E45" s="4">
         <v>4719078</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F45" s="4">
         <v>4719455</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G45" s="4">
         <v>5498578</v>
       </c>
-      <c r="H43" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="5"/>
+      <c r="H45" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J45" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K43" s="4">
-        <v>2</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="4" t="s">
+      <c r="K45" s="4">
+        <v>2</v>
+      </c>
+      <c r="L45" s="6">
+        <v>2</v>
+      </c>
+      <c r="M45" s="12">
+        <v>4</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C46" s="4">
         <v>4427400</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D46" s="4">
         <v>4426630</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E46" s="4">
         <v>4426667</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F46" s="4">
         <v>4427044</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G46" s="4">
         <v>5231428</v>
       </c>
-      <c r="H44" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="5"/>
+      <c r="H46" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="14"/>
         <v>770</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J46" s="4">
         <f t="shared" si="1"/>
         <v>733</v>
       </c>
-      <c r="K44" s="4">
-        <v>2</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="4" t="s">
+      <c r="K46" s="4">
+        <v>4</v>
+      </c>
+      <c r="L46" s="6">
+        <v>2</v>
+      </c>
+      <c r="M46" s="12">
+        <v>4</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C47" s="4">
         <v>4186400</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D47" s="4">
         <v>4186465</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E47" s="4">
         <v>4186502</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F47" s="4">
         <v>4186879</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G47" s="4">
         <v>5065741</v>
       </c>
-      <c r="H45" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="5"/>
+      <c r="H47" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J47" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="K45" s="4">
-        <v>2</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="4" t="s">
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+      <c r="L47" s="5">
+        <v>2</v>
+      </c>
+      <c r="M47" s="12">
+        <v>4</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C48" s="4">
         <v>4109300</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D48" s="4">
         <v>4109386</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E48" s="4">
         <v>4109423</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F48" s="4">
         <v>4109800</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G48" s="4">
         <v>4938920</v>
       </c>
-      <c r="H46" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="5"/>
+      <c r="H48" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J48" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="K46" s="4">
-        <v>2</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="4" t="s">
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>2</v>
+      </c>
+      <c r="M48" s="12">
+        <v>4</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C49" s="4">
         <v>4219200</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D49" s="4">
         <v>4219262</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E49" s="4">
         <v>4219299</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F49" s="4">
         <v>4219676</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G49" s="4">
         <v>5082025</v>
       </c>
-      <c r="H47" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="5"/>
+      <c r="H49" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="14"/>
         <v>62</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J49" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="K47" s="4">
-        <v>2</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="3" t="s">
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>2</v>
+      </c>
+      <c r="M49" s="12">
+        <v>4</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C50" s="4">
         <v>3952700</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D50" s="4">
         <v>3952776</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E50" s="4">
         <v>3952813</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F50" s="4">
         <v>3953190</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G50" s="4">
         <v>4643538</v>
       </c>
-      <c r="H48" s="4">
-        <f>IF(AND(C48&gt;=E48,C48&lt;=F48),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="5"/>
+      <c r="H50" s="4">
+        <f>IF(AND(C50&gt;=E50,C50&lt;=F50),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J50" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="K48" s="4">
-        <v>2</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="30">
-        <f>AVERAGE(I39:I48)</f>
-        <v>359.6</v>
-      </c>
-      <c r="J49" s="30">
-        <f t="shared" ref="J49:K49" si="7">AVERAGE(J39:J48)</f>
-        <v>522857.6</v>
-      </c>
-      <c r="K49" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" ht="28.8">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I50" s="34">
-        <f>AVERAGE(I40:I48)</f>
-        <v>190.66666666666666</v>
-      </c>
-      <c r="J50" s="34">
-        <f>AVERAGE(J41,J40,J43,J44,J45,J46,J47,J48)</f>
-        <v>177.125</v>
-      </c>
-      <c r="K50" s="39">
-        <f>K49</f>
-        <v>1.9</v>
-      </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2</v>
+      </c>
+      <c r="M50" s="12">
+        <v>3</v>
+      </c>
+      <c r="N50" s="13">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -2573,481 +3264,615 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" s="38">
+        <f>AVERAGE(I41:I50)</f>
+        <v>359.6</v>
+      </c>
+      <c r="J51" s="38">
+        <f t="shared" ref="J51:K51" si="18">AVERAGE(J41:J50)</f>
+        <v>522857.6</v>
+      </c>
+      <c r="K51" s="38">
+        <f t="shared" si="18"/>
+        <v>2.1</v>
+      </c>
+      <c r="L51" s="47">
+        <f>AVERAGE(L41:L50)</f>
+        <v>1.9</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" ht="28.8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="39">
+        <f>AVERAGE(I42:I50)</f>
+        <v>190.66666666666666</v>
+      </c>
+      <c r="J52" s="39">
+        <f>AVERAGE(J43,J42,J45,J46,J47,J48,J49,J50)</f>
+        <v>177.125</v>
+      </c>
+      <c r="K52" s="39">
+        <f>K51</f>
+        <v>2.1</v>
+      </c>
+      <c r="L52" s="48">
+        <f>L51</f>
+        <v>1.9</v>
+      </c>
+      <c r="M52" s="12"/>
+      <c r="N52" s="58">
+        <f>AVERAGE(N41:O50)</f>
+        <v>1.9</v>
+      </c>
+      <c r="O52" s="58"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I51" s="34">
-        <f>STDEV(I40:I48)</f>
+      <c r="I53" s="39">
+        <f>STDEV(I42:I50)</f>
         <v>250.44759930971588</v>
       </c>
-      <c r="J51" s="34">
-        <f>STDEV(J40,J41,J43,J44,J45,J46,J47,J48)</f>
+      <c r="J53" s="39">
+        <f>STDEV(J42,J43,J45,J46,J47,J48,J49,J50)</f>
         <v>226.88791285566538</v>
       </c>
-      <c r="K51" s="34">
-        <f>STDEV(K39:K48)</f>
+      <c r="K53" s="39">
+        <f>STDEV(K41:K50)</f>
+        <v>0.73786478737262173</v>
+      </c>
+      <c r="L53" s="48">
+        <f>STDEV(L41:L50)</f>
         <v>0.31622776601683766</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="J52" s="4"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="4" t="s">
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="J54" s="4"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C55" s="4">
         <v>3919700</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D55" s="4">
         <v>3919929</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E55" s="4">
         <v>3928084</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F55" s="4">
         <v>37</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G55" s="4">
         <v>3928357</v>
       </c>
-      <c r="H53" s="4">
-        <f t="shared" ref="H53:H62" si="8">IF(AND(C53&gt;=E53,C53&lt;=F53),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" ref="I53:I62" si="9">ABS(D53-C53)</f>
+      <c r="H55" s="4">
+        <f t="shared" ref="H55:H64" si="19">IF(AND(C55&gt;=E55,C55&lt;=F55),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" ref="I55:I64" si="20">ABS(D55-C55)</f>
         <v>229</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J55" s="4">
         <f t="shared" si="1"/>
         <v>8384</v>
       </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="4" t="s">
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="12">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <f>ABS(M55-K55)</f>
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f>ABS(M55-L55)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C56" s="4">
         <v>4042300</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D56" s="4">
         <v>4042399</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E56" s="4">
         <v>4077189</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F56" s="4">
         <v>37</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G56" s="4">
         <v>4077462</v>
       </c>
-      <c r="H54" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="9"/>
+      <c r="H56" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="J54" s="32">
+      <c r="J56" s="30">
         <f t="shared" si="1"/>
         <v>34889</v>
       </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="4" t="s">
+      <c r="K56" s="4">
+        <v>1</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="12">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N64" si="21">ABS(M56-K56)</f>
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:O64" si="22">ABS(M56-L56)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C57" s="4">
         <v>1108100</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D57" s="4">
         <v>1108189</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E57" s="4">
         <v>151587</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F57" s="4">
         <v>152473</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G57" s="4">
         <v>1108250</v>
       </c>
-      <c r="H55" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <f t="shared" si="9"/>
+      <c r="H57" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
-      <c r="J55" s="32">
+      <c r="J57" s="30">
         <f t="shared" si="1"/>
         <v>956513</v>
       </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="4" t="s">
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C58" s="4">
         <v>2670300</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D58" s="4">
         <v>2670379</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E58" s="4">
         <v>2668956</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F58" s="4">
         <v>2669429</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G58" s="4">
         <v>3024069</v>
       </c>
-      <c r="H56" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" si="9"/>
+      <c r="H58" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J58" s="4">
         <f t="shared" si="1"/>
         <v>1344</v>
       </c>
-      <c r="K56" s="4">
-        <v>1</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="12"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="4" t="s">
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="12">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
         <v>2892421</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F59" s="4">
         <v>234</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G59" s="4">
         <v>2892523</v>
       </c>
-      <c r="H57" s="21">
-        <v>1</v>
-      </c>
-      <c r="I57" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="35">
+      <c r="H59" s="21">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="32">
         <f t="shared" si="1"/>
         <v>2892421</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K59" s="4">
         <v>3</v>
       </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="4" t="s">
+      <c r="L59" s="6">
+        <v>3</v>
+      </c>
+      <c r="M59" s="12">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C60" s="4">
         <v>2200</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D60" s="4">
         <v>79</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E60" s="4">
         <v>247</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F60" s="4">
         <v>1133</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G60" s="4">
         <v>1046382</v>
       </c>
-      <c r="H58" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="32">
-        <f t="shared" si="9"/>
+      <c r="H60" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="30">
+        <f t="shared" si="20"/>
         <v>2121</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J60" s="4">
         <f t="shared" si="1"/>
         <v>1953</v>
       </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="4" t="s">
+      <c r="K60" s="4">
+        <v>1</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C61" s="4">
         <v>509000</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D61" s="4">
         <v>509270</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E61" s="4">
         <v>517431</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F61" s="4">
         <v>517741</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G61" s="4">
         <v>3149584</v>
       </c>
-      <c r="H59" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <f t="shared" si="9"/>
+      <c r="H61" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="20"/>
         <v>270</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J61" s="4">
         <f t="shared" si="1"/>
         <v>8431</v>
       </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="4" t="s">
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C62" s="4">
         <v>271100</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D62" s="4">
         <v>273869</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E62" s="4">
         <v>272387</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F62" s="4">
         <v>273614</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G62" s="4">
         <v>1086784</v>
       </c>
-      <c r="H60" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="32">
-        <f t="shared" si="9"/>
+      <c r="H62" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="30">
+        <f t="shared" si="20"/>
         <v>2769</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="1"/>
         <v>1287</v>
       </c>
-      <c r="K60" s="4">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="4" t="s">
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1</v>
+      </c>
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C63" s="4">
         <v>2555300</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D63" s="4">
         <v>2555260</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E63" s="4">
         <v>2553837</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F63" s="4">
         <v>2554310</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G63" s="4">
         <v>3031375</v>
       </c>
-      <c r="H61" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="9"/>
+      <c r="H63" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J63" s="4">
         <f t="shared" si="1"/>
         <v>1463</v>
       </c>
-      <c r="K61" s="4">
-        <v>1</v>
-      </c>
-      <c r="L61" s="5"/>
-      <c r="M61" s="12"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="4" t="s">
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="12">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C64" s="4">
         <v>774700</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D64" s="4">
         <v>772215</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E64" s="4">
         <v>773081</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F64" s="4">
         <v>773967</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G64" s="4">
         <v>1046365</v>
       </c>
-      <c r="H62" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="32">
-        <f t="shared" si="9"/>
+      <c r="H64" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="30">
+        <f t="shared" si="20"/>
         <v>2485</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J64" s="4">
         <f t="shared" si="1"/>
         <v>1619</v>
       </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="12"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="30">
-        <f>AVERAGE(I53:I62)</f>
-        <v>818.2</v>
-      </c>
-      <c r="J63" s="30">
-        <f t="shared" ref="J63:K63" si="10">AVERAGE(J53:J62)</f>
-        <v>390830.4</v>
-      </c>
-      <c r="K63" s="30">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
-      </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="12"/>
-    </row>
-    <row r="64" spans="1:13" ht="28.8">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I64" s="34">
-        <f>AVERAGE(I53,I54,I55,I56,I57,I59,I61)</f>
-        <v>115.28571428571429</v>
-      </c>
-      <c r="J64" s="34">
-        <f>AVERAGE(J53,J56,J58,J59,J60,J61,J62)</f>
-        <v>3497.2857142857142</v>
-      </c>
-      <c r="K64" s="39">
-        <f>K63</f>
-        <v>0.6</v>
-      </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="12"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="12">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3055,483 +3880,617 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="33" t="s">
+      <c r="H65" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="38">
+        <f>AVERAGE(I55:I64)</f>
+        <v>818.2</v>
+      </c>
+      <c r="J65" s="38">
+        <f t="shared" ref="J65:K65" si="23">AVERAGE(J55:J64)</f>
+        <v>390830.4</v>
+      </c>
+      <c r="K65" s="38">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="46">
+        <f>AVERAGE(L55:L64)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:15" ht="28.8">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I66" s="39">
+        <f>AVERAGE(I55,I56,I57,I58,I59,I61,I63)</f>
+        <v>115.28571428571429</v>
+      </c>
+      <c r="J66" s="39">
+        <f>AVERAGE(J55,J58,J60,J61,J62,J63,J64)</f>
+        <v>3497.2857142857142</v>
+      </c>
+      <c r="K66" s="39">
+        <f>K65</f>
+        <v>0.5</v>
+      </c>
+      <c r="L66" s="42">
+        <f>L65</f>
+        <v>0.6</v>
+      </c>
+      <c r="M66" s="12"/>
+      <c r="N66" s="58">
+        <f>AVERAGE(N55:O64)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O66" s="58"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="34">
-        <f>STDEV(I53,I54,I55,I56,I57,I59,I61)</f>
+      <c r="I67" s="39">
+        <f>STDEV(I55,I56,I57,I58,I59,I61,I63)</f>
         <v>98.208476018644959</v>
       </c>
-      <c r="J65" s="34">
-        <f>STDEV(J53,J56,J58,J59,J60,J61,J62)</f>
+      <c r="J67" s="39">
+        <f>STDEV(J55,J58,J60,J61,J62,J63,J64)</f>
         <v>3361.4136269475334</v>
       </c>
-      <c r="K65" s="34">
-        <f>STDEV(K53:K62)</f>
+      <c r="K67" s="39">
+        <f>STDEV(K55:K64)</f>
+        <v>0.97182531580755005</v>
+      </c>
+      <c r="L67" s="42">
+        <f>STDEV(L55:L64)</f>
         <v>0.96609178307929588</v>
       </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="12"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="12"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="4" t="s">
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C69" s="4">
         <v>3764800</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D69" s="4">
         <v>3764856</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E69" s="4">
         <v>3765058</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F69" s="4">
         <v>3765435</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G69" s="4">
         <v>4809037</v>
       </c>
-      <c r="H67" s="4">
-        <f t="shared" ref="H67:H76" si="11">IF(AND(C67&gt;=E67,C67&lt;=F67),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I76" si="12">ABS(D67-C67)</f>
+      <c r="H69" s="4">
+        <f t="shared" ref="H69:H78" si="24">IF(AND(C69&gt;=E69,C69&lt;=F69),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" ref="I69:I78" si="25">ABS(D69-C69)</f>
         <v>56</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J69" s="4">
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K69" s="4">
+        <v>2</v>
+      </c>
+      <c r="L69" s="8">
         <v>3</v>
       </c>
-      <c r="L67" s="8"/>
-      <c r="M67" s="12"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="4" t="s">
+      <c r="M69" s="12">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <f>ABS(M69-K69)</f>
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <f>ABS(M69-L69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C70" s="4">
         <v>3859300</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D70" s="4">
         <v>3859383</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E70" s="4">
         <v>3858807</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F70" s="4">
         <v>3859184</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G70" s="4">
         <v>4585229</v>
       </c>
-      <c r="H68" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <f t="shared" si="12"/>
+      <c r="H70" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="25"/>
         <v>83</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J70" s="4">
         <f t="shared" si="1"/>
         <v>493</v>
       </c>
-      <c r="K68" s="4">
-        <v>2</v>
-      </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="12"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="4" t="s">
+      <c r="K70" s="4">
+        <v>3</v>
+      </c>
+      <c r="L70" s="8">
+        <v>2</v>
+      </c>
+      <c r="M70" s="12">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N78" si="26">ABS(M70-K70)</f>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:O78" si="27">ABS(M70-L70)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C71" s="4">
         <v>4029100</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D71" s="4">
         <v>4028937</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E71" s="4">
         <v>4028361</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F71" s="4">
         <v>4028738</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G71" s="4">
         <v>4858887</v>
       </c>
-      <c r="H69" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="12"/>
+      <c r="H71" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="25"/>
         <v>163</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J71" s="4">
         <f t="shared" si="1"/>
         <v>739</v>
       </c>
-      <c r="K69" s="4">
-        <v>2</v>
-      </c>
-      <c r="L69" s="8"/>
-      <c r="M69" s="12"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="4" t="s">
+      <c r="K71" s="4">
+        <v>4</v>
+      </c>
+      <c r="L71" s="8">
+        <v>2</v>
+      </c>
+      <c r="M71" s="12">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C72" s="4">
         <v>4107100</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D72" s="4">
         <v>4107240</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E72" s="4">
         <v>4106664</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F72" s="4">
         <v>4107041</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G72" s="4">
         <v>4879400</v>
       </c>
-      <c r="H70" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="12"/>
+      <c r="H72" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J72" s="4">
         <f t="shared" si="1"/>
         <v>436</v>
       </c>
-      <c r="K70" s="4">
-        <v>2</v>
-      </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="12"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="4" t="s">
+      <c r="K72" s="4">
+        <v>3</v>
+      </c>
+      <c r="L72" s="8">
+        <v>2</v>
+      </c>
+      <c r="M72" s="12">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C73" s="4">
         <v>4105600</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D73" s="4">
         <v>4105675</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E73" s="4">
         <v>4105099</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F73" s="4">
         <v>4105476</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G73" s="4">
         <v>4878012</v>
       </c>
-      <c r="H71" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="12"/>
+      <c r="H73" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J73" s="4">
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="K71" s="4">
-        <v>2</v>
-      </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="12"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="4" t="s">
+      <c r="K73" s="4">
+        <v>3</v>
+      </c>
+      <c r="L73" s="7">
+        <v>2</v>
+      </c>
+      <c r="M73" s="12">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C74" s="4">
         <v>4050500</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D74" s="4">
         <v>4050629</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E74" s="4">
         <v>4050053</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F74" s="4">
         <v>4050430</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G74" s="4">
         <v>4827641</v>
       </c>
-      <c r="H72" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f t="shared" si="12"/>
+      <c r="H74" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="25"/>
         <v>129</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J74" s="4">
         <f t="shared" si="1"/>
         <v>447</v>
       </c>
-      <c r="K72" s="4">
-        <v>2</v>
-      </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="12"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="4" t="s">
+      <c r="K74" s="4">
+        <v>3</v>
+      </c>
+      <c r="L74" s="7">
+        <v>2</v>
+      </c>
+      <c r="M74" s="12">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C75" s="4">
         <v>4094400</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D75" s="4">
         <v>4094255</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E75" s="4">
         <v>4093679</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F75" s="4">
         <v>4094056</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G75" s="4">
         <v>4888768</v>
       </c>
-      <c r="H73" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <f t="shared" si="12"/>
+      <c r="H75" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="25"/>
         <v>145</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J75" s="4">
         <f t="shared" si="1"/>
         <v>721</v>
       </c>
-      <c r="K73" s="4">
-        <v>2</v>
-      </c>
-      <c r="L73" s="8"/>
-      <c r="M73" s="12"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="4" t="s">
+      <c r="K75" s="4">
+        <v>4</v>
+      </c>
+      <c r="L75" s="8">
+        <v>2</v>
+      </c>
+      <c r="M75" s="12">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C76" s="4">
         <v>3954600</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D76" s="4">
         <v>3954702</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E76" s="4">
         <v>3954126</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F76" s="4">
         <v>3954503</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G76" s="4">
         <v>4685848</v>
       </c>
-      <c r="H74" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="4">
-        <f t="shared" si="12"/>
+      <c r="H76" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J76" s="4">
         <f t="shared" si="1"/>
         <v>474</v>
       </c>
-      <c r="K74" s="4">
-        <v>2</v>
-      </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="12"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="4" t="s">
+      <c r="K76" s="4">
+        <v>3</v>
+      </c>
+      <c r="L76" s="7">
+        <v>2</v>
+      </c>
+      <c r="M76" s="12">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C77" s="4">
         <v>3977500</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D77" s="4">
         <v>3977342</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E77" s="4">
         <v>3976766</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F77" s="4">
         <v>3977143</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G77" s="4">
         <v>4711924</v>
       </c>
-      <c r="H75" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <f t="shared" si="12"/>
+      <c r="H77" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="25"/>
         <v>158</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J77" s="4">
         <f t="shared" si="1"/>
         <v>734</v>
       </c>
-      <c r="K75" s="4">
-        <v>2</v>
-      </c>
-      <c r="L75" s="8"/>
-      <c r="M75" s="12"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="10" t="s">
+      <c r="K77" s="4">
+        <v>4</v>
+      </c>
+      <c r="L77" s="8">
+        <v>2</v>
+      </c>
+      <c r="M77" s="12">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C78" s="10">
         <v>4903100</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D78" s="10">
         <v>4902632</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E78" s="10">
         <v>1268199</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F78" s="10">
         <v>1269338</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G78" s="10">
         <v>4938076</v>
       </c>
-      <c r="H76" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <f t="shared" si="12"/>
+      <c r="H78" s="10">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="25"/>
         <v>468</v>
       </c>
-      <c r="J76" s="36">
+      <c r="J78" s="33">
         <f t="shared" si="1"/>
         <v>3634901</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K78" s="10">
+        <v>2</v>
+      </c>
+      <c r="L78" s="27">
+        <v>4</v>
+      </c>
+      <c r="M78" s="12">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="L76" s="27"/>
-      <c r="M76" s="12"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I77" s="30">
-        <f>AVERAGE(I67:I76)</f>
-        <v>151.9</v>
-      </c>
-      <c r="J77" s="30">
-        <f t="shared" ref="J77:K77" si="13">AVERAGE(J67:J76)</f>
-        <v>363970.4</v>
-      </c>
-      <c r="K77" s="30">
-        <f t="shared" si="13"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L77" s="27"/>
-      <c r="M77" s="12"/>
-    </row>
-    <row r="78" spans="1:13" ht="28.8">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I78" s="39">
-        <f>AVERAGE(I67:I76)</f>
-        <v>151.9</v>
-      </c>
-      <c r="J78" s="34">
-        <f>AVERAGE(J67:J75)</f>
-        <v>533.66666666666663</v>
-      </c>
-      <c r="K78" s="39">
-        <f>K77</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L78" s="27"/>
-      <c r="M78" s="12"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="O78">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -3539,478 +4498,615 @@
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I79" s="38">
+        <f>AVERAGE(I69:I78)</f>
+        <v>151.9</v>
+      </c>
+      <c r="J79" s="38">
+        <f t="shared" ref="J79:K79" si="28">AVERAGE(J69:J78)</f>
+        <v>363970.4</v>
+      </c>
+      <c r="K79" s="38">
+        <f t="shared" si="28"/>
+        <v>3.1</v>
+      </c>
+      <c r="L79" s="45">
+        <f>AVERAGE(L69:L78)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="1:15" ht="28.8">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I80" s="39">
+        <f>AVERAGE(I69:I78)</f>
+        <v>151.9</v>
+      </c>
+      <c r="J80" s="42">
+        <f>AVERAGE(J69:J77)</f>
+        <v>533.66666666666663</v>
+      </c>
+      <c r="K80" s="42">
+        <f>K79</f>
+        <v>3.1</v>
+      </c>
+      <c r="L80" s="48">
+        <f>L79</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M80" s="12"/>
+      <c r="N80" s="58">
+        <f>AVERAGE(N69:O78)</f>
+        <v>1.4</v>
+      </c>
+      <c r="O80" s="58"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="34">
-        <f>STDEV(I67:I76)</f>
+      <c r="I81" s="39">
+        <f>STDEV(I69:I78)</f>
         <v>116.97145900698264</v>
       </c>
-      <c r="J79" s="34">
-        <f>STDEV(J67:J75)</f>
+      <c r="J81" s="39">
+        <f>STDEV(J69:J77)</f>
         <v>164.58736281987143</v>
       </c>
-      <c r="K79" s="34">
-        <f>STDEV(K67:K76)</f>
-        <v>0.42163702135578407</v>
-      </c>
-      <c r="L79" s="27"/>
-      <c r="M79" s="12"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="J80" s="4"/>
-      <c r="M80" s="12"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="4" t="s">
+      <c r="K81" s="39">
+        <f>STDEV(K69:K78)</f>
+        <v>0.73786478737262229</v>
+      </c>
+      <c r="L81" s="44">
+        <f>STDEV(L69:L78)</f>
+        <v>0.67494855771055307</v>
+      </c>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="J82" s="4"/>
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C83" s="4">
         <v>787100</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D83" s="4">
         <v>787199</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E83" s="4">
         <v>786686</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F83" s="4">
         <v>787242</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G83" s="4">
         <v>1823511</v>
       </c>
-      <c r="H81" s="4">
-        <f t="shared" ref="H81:H90" si="14">IF(AND(C81&gt;=E81,C81&lt;=F81),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I81" s="4">
-        <f t="shared" ref="I81:I90" si="15">ABS(D81-C81)</f>
+      <c r="H83" s="4">
+        <f t="shared" ref="H83:H92" si="29">IF(AND(C83&gt;=E83,C83&lt;=F83),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <f t="shared" ref="I83:I92" si="30">ABS(D83-C83)</f>
         <v>99</v>
       </c>
-      <c r="J81" s="4">
-        <f t="shared" ref="J81:J90" si="16">ABS(E81-C81)</f>
+      <c r="J83" s="4">
+        <f t="shared" ref="J83:J92" si="31">ABS(E83-C83)</f>
         <v>414</v>
       </c>
-      <c r="K81" s="5">
-        <v>1</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="12"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="4" t="s">
+      <c r="K83" s="5">
+        <v>0</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1</v>
+      </c>
+      <c r="M83" s="12">
+        <v>9</v>
+      </c>
+      <c r="N83">
+        <f>ABS(M83-K83)</f>
+        <v>9</v>
+      </c>
+      <c r="O83">
+        <f>ABS(M83-L83)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C84" s="4">
         <v>156900</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D84" s="4">
         <v>156978</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E84" s="4">
         <v>156961</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F84" s="4">
         <v>157517</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G84" s="4">
         <v>1860725</v>
       </c>
-      <c r="H82" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <f t="shared" si="15"/>
+      <c r="H84" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
-      <c r="J82" s="4">
-        <f t="shared" si="16"/>
+      <c r="J84" s="4">
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
-      <c r="K82" s="5">
-        <v>0</v>
-      </c>
-      <c r="L82" s="5"/>
-      <c r="M82" s="12"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="4" t="s">
+      <c r="K84" s="5">
+        <v>1</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
+      <c r="M84" s="12">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84:N92" si="32">ABS(M84-K84)</f>
+        <v>5</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ref="O84:O92" si="33">ABS(M84-L84)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C85" s="4">
         <v>140800</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D85" s="4">
         <v>140889</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E85" s="4">
         <v>157248</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F85" s="4">
         <v>157755</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G85" s="4">
         <v>2135342</v>
       </c>
-      <c r="H83" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="4">
-        <f t="shared" si="15"/>
+      <c r="H85" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <f t="shared" si="30"/>
         <v>89</v>
       </c>
-      <c r="J83" s="32">
-        <f t="shared" si="16"/>
+      <c r="J85" s="30">
+        <f t="shared" si="31"/>
         <v>16448</v>
       </c>
-      <c r="K83" s="5">
-        <v>0</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="12"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="4" t="s">
+      <c r="K85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="12">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C86" s="4">
         <v>822100</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D86" s="4">
         <v>822207</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E86" s="4">
         <v>821694</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F86" s="4">
         <v>822250</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G86" s="4">
         <v>1877693</v>
       </c>
-      <c r="H84" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I84" s="4">
-        <f t="shared" si="15"/>
+      <c r="H86" s="4">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
+        <f t="shared" si="30"/>
         <v>107</v>
       </c>
-      <c r="J84" s="4">
-        <f t="shared" si="16"/>
+      <c r="J86" s="4">
+        <f t="shared" si="31"/>
         <v>406</v>
       </c>
-      <c r="K84" s="5">
-        <v>1</v>
-      </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="12"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="4" t="s">
+      <c r="K86" s="5">
+        <v>0</v>
+      </c>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
+      <c r="M86" s="12">
+        <v>9</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C87" s="4">
         <v>539300</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D87" s="4">
         <v>539312</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E87" s="4">
         <v>539224</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F87" s="4">
         <v>539439</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G87" s="4">
         <v>1884562</v>
       </c>
-      <c r="H85" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I85" s="4">
-        <f t="shared" si="15"/>
+      <c r="H87" s="4">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
-      <c r="J85" s="4">
-        <f t="shared" si="16"/>
+      <c r="J87" s="4">
+        <f t="shared" si="31"/>
         <v>76</v>
       </c>
-      <c r="K85" s="5">
-        <v>1</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="12"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="10" t="s">
+      <c r="K87" s="5">
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
+      <c r="M87" s="12">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C88" s="10">
         <v>141800</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D88" s="10">
         <v>141850</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E88" s="10">
         <v>807603</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F88" s="10">
         <v>808159</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G88" s="10">
         <v>1809823</v>
       </c>
-      <c r="H86" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="10">
-        <f t="shared" si="15"/>
+      <c r="H88" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
-      <c r="J86" s="36">
-        <f t="shared" si="16"/>
+      <c r="J88" s="33">
+        <f t="shared" si="31"/>
         <v>665803</v>
       </c>
-      <c r="K86" s="11">
-        <v>0</v>
-      </c>
-      <c r="L86" s="28"/>
-      <c r="M86" s="12"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="4" t="s">
+      <c r="K88" s="11">
+        <v>1</v>
+      </c>
+      <c r="L88" s="28">
+        <v>0</v>
+      </c>
+      <c r="M88" s="12">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C89" s="4">
         <v>826900</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D89" s="4">
         <v>826973</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E89" s="4">
         <v>826460</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F89" s="4">
         <v>827016</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G89" s="4">
         <v>1843731</v>
       </c>
-      <c r="H87" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I87" s="4">
-        <f t="shared" si="15"/>
+      <c r="H89" s="4">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
+        <f t="shared" si="30"/>
         <v>73</v>
       </c>
-      <c r="J87" s="4">
-        <f t="shared" si="16"/>
+      <c r="J89" s="4">
+        <f t="shared" si="31"/>
         <v>440</v>
       </c>
-      <c r="K87" s="5">
-        <v>1</v>
-      </c>
-      <c r="L87" s="5"/>
-      <c r="M87" s="12"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="4" t="s">
+      <c r="K89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+      <c r="M89" s="12">
+        <v>9</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C90" s="4">
         <v>816400</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D90" s="4">
         <v>816438</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E90" s="4">
         <v>816027</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F90" s="4">
         <v>816571</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G90" s="4">
         <v>1851618</v>
       </c>
-      <c r="H88" s="4">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="I88" s="4">
-        <f t="shared" si="15"/>
+      <c r="H90" s="4">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
-      <c r="J88" s="4">
-        <f t="shared" si="16"/>
+      <c r="J90" s="4">
+        <f t="shared" si="31"/>
         <v>373</v>
       </c>
-      <c r="K88" s="5">
-        <v>1</v>
-      </c>
-      <c r="L88" s="5"/>
-      <c r="M88" s="12"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="4" t="s">
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+      <c r="M90" s="12">
+        <v>8</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C91" s="4">
         <v>156900</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D91" s="4">
         <v>156978</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E91" s="4">
         <v>156961</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F91" s="4">
         <v>157517</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G91" s="4">
         <v>1859582</v>
       </c>
-      <c r="H89" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" si="15"/>
+      <c r="H91" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
-      <c r="J89" s="4">
-        <f t="shared" si="16"/>
+      <c r="J91" s="4">
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
-      <c r="K89" s="5">
-        <v>0</v>
-      </c>
-      <c r="L89" s="5"/>
-      <c r="M89" s="12"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="4" t="s">
+      <c r="K91" s="5">
+        <v>1</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="12">
+        <v>9</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C92" s="4">
         <v>156900</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D92" s="4">
         <v>156978</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E92" s="4">
         <v>156961</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F92" s="4">
         <v>157517</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G92" s="4">
         <v>1869610</v>
       </c>
-      <c r="H90" s="4">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="4">
-        <f t="shared" si="15"/>
+      <c r="H92" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <f t="shared" si="30"/>
         <v>78</v>
       </c>
-      <c r="J90" s="4">
-        <f t="shared" si="16"/>
+      <c r="J92" s="4">
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
-      <c r="K90" s="5">
-        <v>0</v>
-      </c>
-      <c r="L90" s="5"/>
-      <c r="M90" s="12"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I91" s="31">
-        <f>AVERAGE(I81:I90)</f>
-        <v>70.2</v>
-      </c>
-      <c r="J91" s="30">
-        <f>AVERAGE(J81:J90)</f>
-        <v>68414.3</v>
-      </c>
-      <c r="K91" s="30">
-        <f>AVERAGE(K81:K90)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L91" s="5"/>
-      <c r="M91" s="12"/>
-    </row>
-    <row r="92" spans="1:13" ht="28.8">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I92" s="34">
-        <f>AVERAGE(I81:I90)</f>
-        <v>70.2</v>
-      </c>
-      <c r="J92" s="39">
-        <f>AVERAGE(J81,J82,J84,J85,J87,J88,J89,J90)</f>
-        <v>236.5</v>
-      </c>
-      <c r="K92" s="40"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="12"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="K92" s="5">
+        <v>1</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="12">
+        <v>9</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4018,86 +5114,388 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="38">
+        <f>AVERAGE(I83:I92)</f>
+        <v>70.2</v>
+      </c>
+      <c r="J93" s="38">
+        <f>AVERAGE(J83:J92)</f>
+        <v>68414.3</v>
+      </c>
+      <c r="K93" s="38">
+        <f>AVERAGE(K83:K92)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L93" s="41">
+        <f>AVERAGE(L83:L92)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="12"/>
+    </row>
+    <row r="94" spans="1:15" ht="28.8">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I94" s="39">
+        <f>AVERAGE(I83:I92)</f>
+        <v>70.2</v>
+      </c>
+      <c r="J94" s="39">
+        <f>AVERAGE(J83,J84,J86,J87,J89,J90,J91,J92)</f>
+        <v>236.5</v>
+      </c>
+      <c r="K94" s="40">
+        <f>K93</f>
+        <v>0.4</v>
+      </c>
+      <c r="L94" s="42">
+        <f>L93</f>
+        <v>0.5</v>
+      </c>
+      <c r="M94" s="12"/>
+      <c r="N94" s="58">
+        <f>AVERAGE(N83:O92)</f>
+        <v>6.95</v>
+      </c>
+      <c r="O94" s="58"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="I93" s="34">
-        <f>STDEV(I81:I90)</f>
+      <c r="I95" s="39">
+        <f>STDEV(I83:I92)</f>
         <v>28.981986742726168</v>
       </c>
-      <c r="J93" s="34">
-        <f>STDEV(J81,J82,J84,J85,J87,J88,J89,J90)</f>
+      <c r="J95" s="39">
+        <f>STDEV(J83,J84,J86,J87,J89,J90,J91,J92)</f>
         <v>184.56202983588705</v>
       </c>
-      <c r="K93" s="41">
-        <f>STDEV(K81:K90)</f>
+      <c r="K95" s="40">
+        <f>STDEV(K83:K92)</f>
+        <v>0.5163977794943222</v>
+      </c>
+      <c r="L95" s="42">
+        <f>STDEV(L83:L92)</f>
         <v>0.52704627669472992</v>
       </c>
-      <c r="L93" s="5"/>
-      <c r="M93" s="12"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="J94" s="4"/>
-      <c r="M94" s="12"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" t="s">
+      <c r="M95" s="12"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="J96" s="4"/>
+      <c r="M96" s="12"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <v>591200</v>
       </c>
-      <c r="D95">
+      <c r="D97">
         <v>590733</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>697376</v>
       </c>
-      <c r="F95">
+      <c r="F97">
         <v>181</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>697724</v>
       </c>
-      <c r="H95">
-        <f>IF(AND(C95&gt;=E95,C95&lt;=F95),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f>ABS(D95-C95)</f>
+      <c r="H97">
+        <f>IF(AND(C97&gt;=E97,C97&lt;=F97),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>ABS(D97-C97)</f>
         <v>467</v>
       </c>
-      <c r="J95" s="4">
-        <f>ABS(E95-C95)</f>
+      <c r="J97" s="4">
+        <f>ABS(E97-C97)</f>
         <v>106176</v>
       </c>
-      <c r="K95" s="7">
-        <v>0</v>
-      </c>
-      <c r="L95" s="7"/>
-      <c r="M95" s="12"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="H96" s="37" t="s">
+      <c r="K97" s="7">
+        <v>0</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="12">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f>ABS(M97-K97)</f>
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <f>ABS(M97-L97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="H98" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I96" s="40">
+      <c r="I98" s="36">
         <v>467</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J98" s="36">
         <v>106176</v>
       </c>
-      <c r="K96" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="38"/>
+      <c r="K98" s="37">
+        <v>0</v>
+      </c>
+      <c r="L98" s="36">
+        <v>0</v>
+      </c>
+      <c r="N98" s="60">
+        <f>AVERAGE(N97:O97)</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="60"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="H99" s="35"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="72">
+      <c r="A103" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F104" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F106" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F109" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F111" s="55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="55">
+        <v>467</v>
+      </c>
+      <c r="C112" s="55">
+        <v>106176</v>
+      </c>
+      <c r="D112" s="55">
+        <v>0</v>
+      </c>
+      <c r="E112" s="55">
+        <v>0</v>
+      </c>
+      <c r="F112" s="55">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N80:O80"/>
+  </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/OriEval.xlsx
+++ b/OriEval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\seqinf_detection_replication_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BB19C-CE72-4EE3-BF55-BF3B10BA66EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A83C3A-9EA4-4062-A0A2-323C89FADB47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15528" yWindow="60" windowWidth="14796" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -407,9 +407,6 @@
     <t>TEST GENOMES</t>
   </si>
   <si>
-    <t>in range --&gt; circle</t>
-  </si>
-  <si>
     <t>Abs. Difference to
 DoriC oriStart</t>
   </si>
@@ -502,12 +499,6 @@
     <t>2 ± 1</t>
   </si>
   <si>
-    <t>1099008 ± 1895994</t>
-  </si>
-  <si>
-    <t>2086124 ± 1806388</t>
-  </si>
-  <si>
     <t>191 ± 250</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
   </si>
   <si>
     <t>115 ± 98</t>
-  </si>
-  <si>
-    <t>3497 ± 3361</t>
   </si>
   <si>
     <t>Motifs in OriC region
@@ -548,13 +536,26 @@
   </si>
   <si>
     <t xml:space="preserve">Avg Number of Motifs in zoom region (score ≥ 10) </t>
+  </si>
+  <si>
+    <t>Diff OriStart with respect to genome length
+(only used for red genomes)</t>
+  </si>
+  <si>
+    <t>126 ± 176</t>
+  </si>
+  <si>
+    <t>103 ± 1</t>
+  </si>
+  <si>
+    <t>3073 ± 3336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,6 +581,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -596,13 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,17 +690,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -701,85 +712,126 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R112"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1116,9 +1168,10 @@
     <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="17.109375" customWidth="1"/>
     <col min="16" max="16" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72">
+    <row r="1" spans="1:19" ht="72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,29 +1200,32 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="2"/>
+      <c r="S1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
         <v>119</v>
       </c>
@@ -1189,9 +1245,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="15" t="s">
         <v>90</v>
       </c>
@@ -1217,7 +1273,7 @@
         <f>IF(AND(C3&gt;=E3,C3&lt;=F3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <f>ABS(D3-C3)</f>
         <v>1880</v>
       </c>
@@ -1225,13 +1281,13 @@
         <f>ABS(E3-C3)</f>
         <v>1843</v>
       </c>
-      <c r="K3" s="23">
-        <v>2</v>
-      </c>
-      <c r="L3" s="23">
-        <v>2</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="K3" s="21">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21">
+        <v>2</v>
+      </c>
+      <c r="M3" s="21">
         <v>4</v>
       </c>
       <c r="N3" s="20">
@@ -1244,64 +1300,66 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15" t="s">
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" s="61" customFormat="1">
+      <c r="A4" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="60">
         <v>3628500</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="61">
         <v>3628624</v>
       </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="60">
         <v>477</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="60">
         <v>3654135</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="62">
         <f t="shared" ref="H4:H30" si="0">IF(AND(C4&gt;=E4,C4&lt;=F4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="62">
         <f>ABS(D4-C4)</f>
         <v>124</v>
       </c>
-      <c r="J4" s="30">
-        <f t="shared" ref="J4:J78" si="1">ABS(E4-C4)</f>
-        <v>3628499</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="J4" s="63">
+        <f>P4</f>
+        <v>25634</v>
+      </c>
+      <c r="K4" s="64">
+        <v>0</v>
+      </c>
+      <c r="L4" s="64">
+        <v>0</v>
+      </c>
+      <c r="M4" s="64">
         <v>3</v>
       </c>
-      <c r="N4" s="20">
-        <f t="shared" ref="N4:N5" si="2">ABS(M4-K4)</f>
+      <c r="N4" s="65">
+        <f t="shared" ref="N4:N5" si="1">ABS(M4-K4)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="20">
-        <f t="shared" ref="O4:O5" si="3">ABS(M4-L4)</f>
+      <c r="O4" s="65">
+        <f t="shared" ref="O4:O5" si="2">ABS(M4-L4)</f>
         <v>3</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="29"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P59" si="3">ABS(ABS(G4-E4)-ABS(0-C4))</f>
+        <v>25634</v>
+      </c>
+      <c r="Q4" s="65"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
         <v>122</v>
       </c>
@@ -1332,62 +1390,62 @@
         <v>85</v>
       </c>
       <c r="J5" s="4">
+        <f t="shared" ref="J5:J78" si="4">ABS(E5-C5)</f>
+        <v>326</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <v>2</v>
+      </c>
+      <c r="M5" s="21">
+        <v>3</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="K5" s="23">
-        <v>1</v>
-      </c>
-      <c r="L5" s="23">
-        <v>2</v>
-      </c>
-      <c r="M5" s="23">
-        <v>3</v>
-      </c>
-      <c r="N5" s="20">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" s="38">
+      <c r="H6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="35">
         <f>AVERAGE(I3:I5)</f>
         <v>696.33333333333337</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f>AVERAGE(J3:J5)</f>
-        <v>1210222.6666666667</v>
-      </c>
-      <c r="K6" s="38">
+        <v>9267.6666666666661</v>
+      </c>
+      <c r="K6" s="35">
         <f>AVERAGE(K3:K5)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="46">
         <f>AVERAGE(L3:L5)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" ht="28.8">
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" ht="28.8">
       <c r="A7" s="15"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1395,36 +1453,36 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="H7" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="36">
         <f>AVERAGE(I4:I5)</f>
         <v>104.5</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="36">
         <f>AVERAGE(J3,J5)</f>
         <v>1084.5</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="45">
         <f>K6</f>
         <v>1</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="45">
         <f>L6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M7" s="23"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="57">
         <f>AVERAGE(N3:O5)</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="O7" s="57"/>
-      <c r="P7" s="20"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="20"/>
-      <c r="R7" s="29"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="15"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1432,33 +1490,33 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="39">
+      <c r="H8" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="36">
         <f>STDEV(I4:I5)</f>
         <v>27.577164466275352</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="36">
         <f>STDEV(J3,J5)</f>
         <v>1072.6809870599925</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="45">
         <f>STDEV(K3:K5)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="45">
         <f>STDEV(L3:L5)</f>
         <v>1.1547005383792517</v>
       </c>
-      <c r="M8" s="23"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="R8" s="27"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="18" t="s">
         <v>92</v>
       </c>
@@ -1471,16 +1529,16 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>90</v>
       </c>
@@ -1506,21 +1564,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <f>ABS(D10-C10)</f>
         <v>1880</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1843</v>
       </c>
-      <c r="K10" s="23">
-        <v>2</v>
-      </c>
-      <c r="L10" s="23">
-        <v>2</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="K10" s="21">
+        <v>2</v>
+      </c>
+      <c r="L10" s="21">
+        <v>2</v>
+      </c>
+      <c r="M10" s="21">
         <v>4</v>
       </c>
       <c r="N10" s="20">
@@ -1533,9 +1591,9 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="29"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="R10" s="27"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1566,28 +1624,29 @@
         <v>59</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="K11" s="24">
-        <v>2</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="K11" s="22">
+        <v>2</v>
+      </c>
+      <c r="L11" s="22">
         <v>2</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" ref="N11:N14" si="4">ABS(M11-K11)</f>
+        <f t="shared" ref="N11:N14" si="5">ABS(M11-K11)</f>
         <v>2</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" ref="O11:O14" si="5">ABS(M11-L11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <f t="shared" ref="O11:O14" si="6">ABS(M11-L11)</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1618,28 +1677,29 @@
         <v>67</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="K12" s="24">
-        <v>2</v>
-      </c>
-      <c r="L12" s="24">
+      <c r="K12" s="22">
+        <v>2</v>
+      </c>
+      <c r="L12" s="22">
         <v>2</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1670,120 +1730,126 @@
         <v>84</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="K13" s="24">
-        <v>2</v>
-      </c>
-      <c r="L13" s="24">
+      <c r="K13" s="22">
+        <v>2</v>
+      </c>
+      <c r="L13" s="22">
         <v>2</v>
       </c>
       <c r="M13">
         <v>4</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" s="61" customFormat="1">
+      <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="61">
         <v>400</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="62">
         <v>847</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="62">
         <v>5225716</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="62">
         <v>5226093</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="61">
         <v>5273097</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="62">
         <f>ABS(D14-C14)</f>
         <v>447</v>
       </c>
-      <c r="J14" s="30">
-        <f t="shared" si="1"/>
-        <v>5225316</v>
-      </c>
-      <c r="K14" s="24">
-        <v>1</v>
-      </c>
-      <c r="L14" s="24">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="J14" s="63">
+        <f>P14</f>
+        <v>46981</v>
+      </c>
+      <c r="K14" s="66">
+        <v>1</v>
+      </c>
+      <c r="L14" s="66">
+        <v>1</v>
+      </c>
+      <c r="M14" s="61">
         <v>4</v>
       </c>
-      <c r="N14" s="20">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O14" s="20">
+      <c r="N14" s="65">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="O14" s="65">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
+        <v>46981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="H15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="35">
         <f>AVERAGE(I10:I14)</f>
         <v>507.4</v>
       </c>
-      <c r="J15" s="38">
-        <f t="shared" ref="J15:K15" si="6">AVERAGE(J10:J14)</f>
-        <v>1045481.2</v>
-      </c>
-      <c r="K15" s="38">
-        <f t="shared" si="6"/>
+      <c r="J15" s="35">
+        <f>AVERAGE(J10:J14)</f>
+        <v>9814.2000000000007</v>
+      </c>
+      <c r="K15" s="35">
+        <f t="shared" ref="K15" si="7">AVERAGE(K10:K14)</f>
         <v>1.8</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="47">
         <f>AVERAGE(L10:L14)</f>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="28.8">
-      <c r="H16" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="39">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="28.8">
+      <c r="H16" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="36">
         <f>AVERAGE(I11:I14)</f>
         <v>164.25</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="36">
         <f>AVERAGE(J10:J13)</f>
         <v>522.5</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="37">
         <f>K15</f>
         <v>1.8</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="37">
         <f>L15</f>
         <v>1.8</v>
       </c>
@@ -1792,40 +1858,43 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O16" s="57"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="39">
+      <c r="H17" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="36">
         <f>STDEV(I11:I14)</f>
         <v>188.78802045327629</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="36">
         <f>STDEV(J10:J13)</f>
         <v>881.3937825966326</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="37">
         <f>STDEV(K10:K14)</f>
         <v>0.44721359549995815</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="37">
         <f>STDEV(L10:L14)</f>
         <v>0.44721359549995815</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="15" t="s">
         <v>90</v>
       </c>
@@ -1851,12 +1920,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="30">
-        <f t="shared" ref="I19:I30" si="7">ABS(D19-C19)</f>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19:I30" si="8">ABS(D19-C19)</f>
         <v>1880</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1843</v>
       </c>
       <c r="K19">
@@ -1876,8 +1945,9 @@
         <f>ABS(M19-L19)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -1904,11 +1974,11 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K20">
@@ -1921,15 +1991,16 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N30" si="8">ABS(M20-K20)</f>
+        <f t="shared" ref="N20:N30" si="9">ABS(M20-K20)</f>
         <v>2</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O30" si="9">ABS(M20-L20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <f t="shared" ref="O20:O30" si="10">ABS(M20-L20)</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1956,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="K21">
@@ -1973,15 +2044,16 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2008,11 +2080,11 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="K22">
@@ -2025,67 +2097,72 @@
         <v>4</v>
       </c>
       <c r="N22">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" s="61" customFormat="1">
+      <c r="A23" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="61">
+        <v>400</v>
+      </c>
+      <c r="D23" s="62">
+        <v>847</v>
+      </c>
+      <c r="E23" s="62">
+        <v>5225716</v>
+      </c>
+      <c r="F23" s="62">
+        <v>5226093</v>
+      </c>
+      <c r="G23" s="61">
+        <v>5273097</v>
+      </c>
+      <c r="H23" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="62">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23">
-        <v>400</v>
-      </c>
-      <c r="D23" s="4">
-        <v>847</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5225716</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5226093</v>
-      </c>
-      <c r="G23">
-        <v>5273097</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="7"/>
         <v>447</v>
       </c>
-      <c r="J23" s="30">
-        <f t="shared" si="1"/>
-        <v>5225316</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="J23" s="63">
+        <f>P23</f>
+        <v>46981</v>
+      </c>
+      <c r="K23" s="61">
+        <v>1</v>
+      </c>
+      <c r="L23" s="61">
+        <v>1</v>
+      </c>
+      <c r="M23" s="61">
         <v>4</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O23">
+      <c r="N23" s="61">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="O23" s="61">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="3"/>
+        <v>46981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2112,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="J24" s="30">
-        <f t="shared" si="1"/>
+      <c r="J24" s="28">
+        <f>ABS(E24-C24)</f>
         <v>111202</v>
       </c>
       <c r="K24">
@@ -2129,15 +2206,16 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2164,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="J25" s="30">
-        <f t="shared" si="1"/>
+      <c r="J25" s="28">
+        <f t="shared" si="4"/>
         <v>569217</v>
       </c>
       <c r="K25">
@@ -2181,15 +2259,16 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2216,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>664</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="K26">
@@ -2233,15 +2312,16 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2268,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="K27">
@@ -2285,15 +2365,16 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2320,11 +2401,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>343</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1218</v>
       </c>
       <c r="K28">
@@ -2337,15 +2418,16 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O28">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2372,11 +2454,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="K29">
@@ -2389,354 +2471,370 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="O29">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" s="27" customFormat="1">
+      <c r="A30" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="27">
         <v>700</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="27">
         <v>845</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="27">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
         <v>381</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="27">
         <v>5333942</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="7"/>
+      <c r="I30" s="24">
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
-      <c r="J30" s="4">
-        <f t="shared" si="1"/>
+      <c r="J30" s="24">
+        <f t="shared" si="4"/>
         <v>699</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="27">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="27">
         <v>3</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="27">
         <v>4</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O30">
+      <c r="N30" s="27">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="H31" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="38">
+      <c r="O30" s="27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="H31" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="35">
         <f>AVERAGE(I19:I30)</f>
         <v>327.41666666666669</v>
       </c>
-      <c r="J31" s="38">
-        <f t="shared" ref="J31:K31" si="10">AVERAGE(J19:J30)</f>
-        <v>492594.83333333331</v>
-      </c>
-      <c r="K31" s="38">
+      <c r="J31" s="35">
+        <f>AVERAGE(J19:J30)</f>
+        <v>61066.916666666664</v>
+      </c>
+      <c r="K31" s="35">
         <f>AVERAGE(K19:K30)</f>
         <v>1.5</v>
       </c>
-      <c r="L31" s="53">
+      <c r="L31" s="50">
         <f>AVERAGE(L19:L30)</f>
         <v>1.5833333333333333</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="28.8">
-      <c r="H32" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" s="39">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="28.8">
+      <c r="H32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="36">
         <f>AVERAGE(I20:I30)</f>
         <v>186.27272727272728</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="36">
         <f>AVERAGE(J19,J20,J21,J22,J26,J27,J28,J29,J30)</f>
         <v>600.33333333333337</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="37">
         <f>K31</f>
         <v>1.5</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="37">
         <f>L31</f>
         <v>1.5833333333333333</v>
       </c>
-      <c r="N32" s="58">
+      <c r="N32" s="56">
         <f>AVERAGE(N19:O30)</f>
         <v>2.2916666666666665</v>
       </c>
-      <c r="O32" s="58"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="H33" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="39">
+      <c r="O32" s="56"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="H33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="36">
         <f>STDEV(I20:I30)</f>
         <v>207.39387209321828</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="36">
         <f>STDEV(J19,J20,J21,J22,J26,J27,J28,J29,J30)</f>
         <v>644.97306145295715</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="37">
         <f>STDEV(K19:K30)</f>
         <v>1</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="37">
         <f>STDEV(L19:L30)</f>
         <v>0.99620491989562199</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="17" t="s">
         <v>112</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="19" t="s">
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" s="61" customFormat="1">
+      <c r="A35" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="61">
+        <v>0</v>
+      </c>
+      <c r="D35" s="61">
+        <v>1</v>
+      </c>
+      <c r="E35" s="61">
         <v>2961047</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="61">
         <v>234</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="61">
         <v>2961149</v>
       </c>
-      <c r="H35" s="21">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="H35" s="62">
+        <v>1</v>
+      </c>
+      <c r="I35" s="62">
         <f>ABS(D35-C35)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="21">
-        <f t="shared" si="1"/>
-        <v>2961047</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="62">
+        <f>P35</f>
+        <v>102</v>
+      </c>
+      <c r="K35" s="61">
         <v>3</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="61">
         <v>3</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="61">
         <v>3</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="61">
         <f>ABS(M35-K35)</f>
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="61">
         <f>ABS(M35-L35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
+      <c r="P35" s="2">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="74" customFormat="1">
+      <c r="A36" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="74">
         <v>2897200</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="74">
         <v>2905915</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="74">
         <v>2906069</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="74">
         <v>312</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="74">
         <v>2897536</v>
       </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="28">
+        <v>0</v>
+      </c>
+      <c r="I36" s="28">
         <f>ABS(D36-C36)</f>
         <v>8715</v>
       </c>
-      <c r="J36" s="4">
-        <f t="shared" si="1"/>
+      <c r="J36" s="28">
+        <f t="shared" si="4"/>
         <v>8869</v>
       </c>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" s="28">
+        <v>1</v>
+      </c>
+      <c r="L36" s="28">
         <v>3</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="28">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="74">
         <f t="shared" ref="N36:N37" si="11">ABS(M36-K36)</f>
         <v>2</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="74">
         <f t="shared" ref="O36:O37" si="12">ABS(M36-L36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
+      <c r="P36" s="75"/>
+    </row>
+    <row r="37" spans="1:18" s="61" customFormat="1">
+      <c r="A37" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="61">
+        <v>0</v>
+      </c>
+      <c r="D37" s="61">
         <v>3288308</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="61">
         <v>3288455</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="61">
         <v>370</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="61">
         <v>3288558</v>
       </c>
-      <c r="H37" s="21">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <f>ABS(D37-C37)</f>
-        <v>3288308</v>
-      </c>
-      <c r="J37" s="21">
-        <f t="shared" si="1"/>
-        <v>3288455</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
+      <c r="H37" s="62">
+        <v>1</v>
+      </c>
+      <c r="I37" s="62">
+        <f>ABS(D37-C37-G37)</f>
+        <v>250</v>
+      </c>
+      <c r="J37" s="62">
+        <f>P37</f>
+        <v>103</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1</v>
+      </c>
+      <c r="L37" s="61">
         <v>3</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="61">
         <v>5</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="61">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="61">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="P37" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="H38" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="38">
-        <f>AVERAGE(I35:I37)</f>
-        <v>1099008</v>
-      </c>
-      <c r="J38" s="38">
-        <f t="shared" ref="J38:K38" si="13">AVERAGE(J35:J37)</f>
-        <v>2086123.6666666667</v>
-      </c>
-      <c r="K38" s="38">
-        <f t="shared" si="13"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L38" s="51">
-        <f>AVERAGE(L35:L37)</f>
+      <c r="P37" s="2">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="E38" s="54"/>
+      <c r="H38" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="35">
+        <f>AVERAGE(I35,I37)</f>
+        <v>125.5</v>
+      </c>
+      <c r="J38" s="35">
+        <f>AVERAGE(J35,J37)</f>
+        <v>102.5</v>
+      </c>
+      <c r="K38" s="35">
+        <f>AVERAGE(K35,K37)</f>
+        <v>2</v>
+      </c>
+      <c r="L38" s="48">
+        <f>AVERAGE(L35,L37)</f>
         <v>3</v>
       </c>
-      <c r="N38" s="59">
-        <f>AVERAGE(N35:O37)</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O38" s="59"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="H39" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="38">
-        <f>STDEV(I35:I37)</f>
-        <v>1895994.422710415</v>
-      </c>
-      <c r="J39" s="38">
-        <f>STDEV(J35:J37)</f>
-        <v>1806388.4444541084</v>
-      </c>
-      <c r="K39" s="53">
-        <f>STDEV(K35:K37)</f>
-        <v>1.1547005383792515</v>
-      </c>
-      <c r="L39" s="43">
+      <c r="N38" s="58">
+        <f>AVERAGE(N35,O35,O37,N37)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O38" s="58"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="H39" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="35">
+        <f>STDEV(I35,I37)</f>
+        <v>176.06958851545033</v>
+      </c>
+      <c r="J39" s="35">
+        <f>STDEV(J35,J37)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="K39" s="50">
+        <f>STDEV(K35,K37)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="L39" s="40">
         <f>STDEV(L35:L37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="17" t="s">
         <v>124</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
@@ -2762,12 +2860,12 @@
         <f>IF(AND(C41&gt;=E41,C41&lt;=F41),1,0)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="30">
-        <f t="shared" ref="I41:I50" si="14">ABS(D41-C41)</f>
+      <c r="I41" s="28">
+        <f t="shared" ref="I41:I50" si="13">ABS(D41-C41)</f>
         <v>1880</v>
       </c>
-      <c r="J41" s="30">
-        <f t="shared" si="1"/>
+      <c r="J41" s="28">
+        <f t="shared" si="4"/>
         <v>1843</v>
       </c>
       <c r="K41" s="4">
@@ -2787,8 +2885,9 @@
         <f>ABS(M41-L41)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2811,15 +2910,15 @@
         <v>5132068</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" ref="H42:H49" si="15">IF(AND(C42&gt;=E42,C42&lt;=F42),1,0)</f>
+        <f t="shared" ref="H42:H49" si="14">IF(AND(C42&gt;=E42,C42&lt;=F42),1,0)</f>
         <v>0</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="K42" s="4">
@@ -2832,15 +2931,16 @@
         <v>4</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" ref="N42:N50" si="16">ABS(M42-K42)</f>
+        <f t="shared" ref="N42:N50" si="15">ABS(M42-K42)</f>
         <v>2</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O50" si="17">ABS(M42-L42)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <f t="shared" ref="O42:O50" si="16">ABS(M42-L42)</f>
+        <v>2</v>
+      </c>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -2863,15 +2963,15 @@
         <v>4747819</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="K43" s="4">
@@ -2884,67 +2984,73 @@
         <v>4</v>
       </c>
       <c r="N43" s="13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="4" t="s">
+      <c r="P43" s="2"/>
+      <c r="R43" s="72"/>
+    </row>
+    <row r="44" spans="1:18" s="61" customFormat="1">
+      <c r="A44" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="62">
         <v>400</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="62">
         <v>847</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="62">
         <v>5225716</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="62">
         <v>5226093</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="62">
         <v>5273097</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="62">
+        <f t="shared" si="13"/>
+        <v>447</v>
+      </c>
+      <c r="J44" s="63">
+        <f>P44</f>
+        <v>46981</v>
+      </c>
+      <c r="K44" s="62">
+        <v>1</v>
+      </c>
+      <c r="L44" s="68">
+        <v>1</v>
+      </c>
+      <c r="M44" s="69">
+        <v>4</v>
+      </c>
+      <c r="N44" s="70">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="14"/>
-        <v>447</v>
-      </c>
-      <c r="J44" s="30">
-        <f t="shared" si="1"/>
-        <v>5225316</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1</v>
-      </c>
-      <c r="L44" s="5">
-        <v>1</v>
-      </c>
-      <c r="M44" s="12">
-        <v>4</v>
-      </c>
-      <c r="N44" s="13">
+        <v>3</v>
+      </c>
+      <c r="O44" s="61">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="2">
+        <f t="shared" si="3"/>
+        <v>46981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="4" t="s">
         <v>94</v>
       </c>
@@ -2967,15 +3073,15 @@
         <v>5498578</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K45" s="4">
@@ -2988,15 +3094,16 @@
         <v>4</v>
       </c>
       <c r="N45" s="13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
@@ -3019,15 +3126,15 @@
         <v>5231428</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>770</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>733</v>
       </c>
       <c r="K46" s="4">
@@ -3040,15 +3147,16 @@
         <v>4</v>
       </c>
       <c r="N46" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
@@ -3071,15 +3179,15 @@
         <v>5065741</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="K47" s="4">
@@ -3092,15 +3200,16 @@
         <v>4</v>
       </c>
       <c r="N47" s="13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3123,15 +3232,15 @@
         <v>4938920</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="K48" s="4">
@@ -3144,15 +3253,16 @@
         <v>4</v>
       </c>
       <c r="N48" s="13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
         <v>23</v>
       </c>
@@ -3175,15 +3285,15 @@
         <v>5082025</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="K49" s="4">
@@ -3196,15 +3306,16 @@
         <v>4</v>
       </c>
       <c r="N49" s="13">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -3231,11 +3342,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="K50" s="4">
@@ -3248,15 +3359,16 @@
         <v>3</v>
       </c>
       <c r="N50" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -3264,28 +3376,29 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="38">
+      <c r="H51" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="35">
         <f>AVERAGE(I41:I50)</f>
         <v>359.6</v>
       </c>
-      <c r="J51" s="38">
-        <f t="shared" ref="J51:K51" si="18">AVERAGE(J41:J50)</f>
-        <v>522857.6</v>
-      </c>
-      <c r="K51" s="38">
-        <f t="shared" si="18"/>
+      <c r="J51" s="35">
+        <f t="shared" ref="J51:K51" si="17">AVERAGE(J41:J50)</f>
+        <v>5024.1000000000004</v>
+      </c>
+      <c r="K51" s="35">
+        <f t="shared" si="17"/>
         <v>2.1</v>
       </c>
-      <c r="L51" s="47">
+      <c r="L51" s="44">
         <f>AVERAGE(L41:L50)</f>
         <v>1.9</v>
       </c>
       <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" ht="28.8">
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:16" ht="28.8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -3293,33 +3406,34 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="39">
+      <c r="H52" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="36">
         <f>AVERAGE(I42:I50)</f>
         <v>190.66666666666666</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="36">
         <f>AVERAGE(J43,J42,J45,J46,J47,J48,J49,J50)</f>
         <v>177.125</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52" s="36">
         <f>K51</f>
         <v>2.1</v>
       </c>
-      <c r="L52" s="48">
+      <c r="L52" s="45">
         <f>L51</f>
         <v>1.9</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="58">
+      <c r="N52" s="56">
         <f>AVERAGE(N41:O50)</f>
         <v>1.9</v>
       </c>
-      <c r="O52" s="58"/>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="O52" s="56"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -3327,33 +3441,35 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="39">
+      <c r="H53" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="36">
         <f>STDEV(I42:I50)</f>
         <v>250.44759930971588</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="36">
         <f>STDEV(J42,J43,J45,J46,J47,J48,J49,J50)</f>
         <v>226.88791285566538</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="36">
         <f>STDEV(K41:K50)</f>
         <v>0.73786478737262173</v>
       </c>
-      <c r="L53" s="48">
+      <c r="L53" s="45">
         <f>STDEV(L41:L50)</f>
         <v>0.31622776601683766</v>
       </c>
       <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="1:16">
       <c r="J54" s="4"/>
       <c r="L54" s="7"/>
       <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54" s="2"/>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
@@ -3376,15 +3492,15 @@
         <v>3928357</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" ref="H55:H64" si="19">IF(AND(C55&gt;=E55,C55&lt;=F55),1,0)</f>
+        <f t="shared" ref="H55:H64" si="18">IF(AND(C55&gt;=E55,C55&lt;=F55),1,0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" ref="I55:I64" si="20">ABS(D55-C55)</f>
+        <f t="shared" ref="I55:I64" si="19">ABS(D55-C55)</f>
         <v>229</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8384</v>
       </c>
       <c r="K55" s="4">
@@ -3404,8 +3520,9 @@
         <f>ABS(M55-L55)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" s="2"/>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
         <v>29</v>
       </c>
@@ -3428,15 +3545,15 @@
         <v>4077462</v>
       </c>
       <c r="H56" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="J56" s="30">
-        <f t="shared" si="1"/>
+      <c r="J56" s="28">
+        <f t="shared" si="4"/>
         <v>34889</v>
       </c>
       <c r="K56" s="4">
@@ -3449,67 +3566,72 @@
         <v>3</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:N64" si="21">ABS(M56-K56)</f>
+        <f t="shared" ref="N56:N64" si="20">ABS(M56-K56)</f>
         <v>2</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56:O64" si="22">ABS(M56-L56)</f>
+        <f t="shared" ref="O56:O64" si="21">ABS(M56-L56)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="4" t="s">
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="1:16" s="61" customFormat="1">
+      <c r="A57" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="62">
         <v>1108100</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="62">
         <v>1108189</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="62">
         <v>151587</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="62">
         <v>152473</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="62">
         <v>1108250</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="62">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="62">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
+        <v>89</v>
+      </c>
+      <c r="J57" s="63">
+        <f>P57</f>
+        <v>151437</v>
+      </c>
+      <c r="K57" s="62">
+        <v>0</v>
+      </c>
+      <c r="L57" s="68">
+        <v>0</v>
+      </c>
+      <c r="M57" s="69">
+        <v>14</v>
+      </c>
+      <c r="N57" s="61">
         <f t="shared" si="20"/>
-        <v>89</v>
-      </c>
-      <c r="J57" s="30">
-        <f t="shared" si="1"/>
-        <v>956513</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12">
         <v>14</v>
       </c>
-      <c r="N57">
+      <c r="O57" s="61">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="O57">
-        <f t="shared" si="22"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57" s="73">
+        <f t="shared" si="3"/>
+        <v>151437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
         <v>33</v>
       </c>
@@ -3532,15 +3654,15 @@
         <v>3024069</v>
       </c>
       <c r="H58" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" si="20"/>
         <v>79</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1344</v>
       </c>
       <c r="K58" s="4">
@@ -3553,66 +3675,71 @@
         <v>5</v>
       </c>
       <c r="N58">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="4" t="s">
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="1:16" s="61" customFormat="1">
+      <c r="A59" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="C59" s="62">
+        <v>0</v>
+      </c>
+      <c r="D59" s="62">
+        <v>1</v>
+      </c>
+      <c r="E59" s="62">
         <v>2892421</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="62">
         <v>234</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="62">
         <v>2892523</v>
       </c>
-      <c r="H59" s="21">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4">
+      <c r="H59" s="62">
+        <v>1</v>
+      </c>
+      <c r="I59" s="62">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="69">
+        <f>P59</f>
+        <v>102</v>
+      </c>
+      <c r="K59" s="62">
+        <v>3</v>
+      </c>
+      <c r="L59" s="71">
+        <v>3</v>
+      </c>
+      <c r="M59" s="69">
+        <v>3</v>
+      </c>
+      <c r="N59" s="61">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="32">
-        <f t="shared" si="1"/>
-        <v>2892421</v>
-      </c>
-      <c r="K59" s="4">
-        <v>3</v>
-      </c>
-      <c r="L59" s="6">
-        <v>3</v>
-      </c>
-      <c r="M59" s="12">
-        <v>3</v>
-      </c>
-      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="61">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" s="2">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
         <v>37</v>
       </c>
@@ -3635,15 +3762,15 @@
         <v>1046382</v>
       </c>
       <c r="H60" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="30">
-        <f t="shared" si="20"/>
         <v>2121</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1953</v>
       </c>
       <c r="K60" s="4">
@@ -3656,15 +3783,16 @@
         <v>8</v>
       </c>
       <c r="N60">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
@@ -3687,15 +3815,15 @@
         <v>3149584</v>
       </c>
       <c r="H61" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="20"/>
         <v>270</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8431</v>
       </c>
       <c r="K61" s="4">
@@ -3708,15 +3836,16 @@
         <v>3</v>
       </c>
       <c r="N61">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="O61">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
         <v>41</v>
       </c>
@@ -3739,36 +3868,37 @@
         <v>1086784</v>
       </c>
       <c r="H62" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="30">
+        <v>2769</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="4"/>
+        <v>1287</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1</v>
+      </c>
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="20"/>
-        <v>2769</v>
-      </c>
-      <c r="J62" s="4">
-        <f t="shared" si="1"/>
-        <v>1287</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-      <c r="L62" s="5">
-        <v>1</v>
-      </c>
-      <c r="M62" s="12">
-        <v>1</v>
-      </c>
-      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2"/>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
         <v>43</v>
       </c>
@@ -3791,15 +3921,15 @@
         <v>3031375</v>
       </c>
       <c r="H63" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1463</v>
       </c>
       <c r="K63" s="4">
@@ -3812,15 +3942,16 @@
         <v>5</v>
       </c>
       <c r="N63">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63" s="2"/>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
         <v>45</v>
       </c>
@@ -3843,15 +3974,15 @@
         <v>1046365</v>
       </c>
       <c r="H64" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="30">
-        <f t="shared" si="20"/>
         <v>2485</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1619</v>
       </c>
       <c r="K64" s="4">
@@ -3864,15 +3995,16 @@
         <v>8</v>
       </c>
       <c r="N64">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64" s="2"/>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3880,28 +4012,29 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="38">
+      <c r="H65" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="35">
         <f>AVERAGE(I55:I64)</f>
         <v>818.2</v>
       </c>
-      <c r="J65" s="38">
-        <f t="shared" ref="J65:K65" si="23">AVERAGE(J55:J64)</f>
-        <v>390830.4</v>
-      </c>
-      <c r="K65" s="38">
-        <f t="shared" si="23"/>
+      <c r="J65" s="35">
+        <f>AVERAGE(J55:J64)</f>
+        <v>21090.9</v>
+      </c>
+      <c r="K65" s="35">
+        <f t="shared" ref="J65:K65" si="22">AVERAGE(K55:K64)</f>
         <v>0.5</v>
       </c>
-      <c r="L65" s="46">
+      <c r="L65" s="43">
         <f>AVERAGE(L55:L64)</f>
         <v>0.6</v>
       </c>
       <c r="M65" s="12"/>
-    </row>
-    <row r="66" spans="1:15" ht="28.8">
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="1:16" ht="28.8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3909,33 +4042,34 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I66" s="39">
+      <c r="H66" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I66" s="36">
         <f>AVERAGE(I55,I56,I57,I58,I59,I61,I63)</f>
         <v>115.28571428571429</v>
       </c>
-      <c r="J66" s="39">
-        <f>AVERAGE(J55,J58,J60,J61,J62,J63,J64)</f>
-        <v>3497.2857142857142</v>
-      </c>
-      <c r="K66" s="39">
+      <c r="J66" s="36">
+        <f>AVERAGE(J55,J58,J60,J61,J62,J63,J64,J59)</f>
+        <v>3072.875</v>
+      </c>
+      <c r="K66" s="36">
         <f>K65</f>
         <v>0.5</v>
       </c>
-      <c r="L66" s="42">
+      <c r="L66" s="39">
         <f>L65</f>
         <v>0.6</v>
       </c>
       <c r="M66" s="12"/>
-      <c r="N66" s="58">
+      <c r="N66" s="56">
         <f>AVERAGE(N55:O64)</f>
         <v>4.75</v>
       </c>
-      <c r="O66" s="58"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="O66" s="56"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3943,34 +4077,36 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I67" s="36">
         <f>STDEV(I55,I56,I57,I58,I59,I61,I63)</f>
         <v>98.208476018644959</v>
       </c>
-      <c r="J67" s="39">
-        <f>STDEV(J55,J58,J60,J61,J62,J63,J64)</f>
-        <v>3361.4136269475334</v>
-      </c>
-      <c r="K67" s="39">
+      <c r="J67" s="36">
+        <f>STDEV(J55,J58,J60,J61,J62,J63,J64,J59)</f>
+        <v>3335.556900921601</v>
+      </c>
+      <c r="K67" s="36">
         <f>STDEV(K55:K64)</f>
         <v>0.97182531580755005</v>
       </c>
-      <c r="L67" s="42">
+      <c r="L67" s="39">
         <f>STDEV(L55:L64)</f>
         <v>0.96609178307929588</v>
       </c>
       <c r="M67" s="12"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67" s="2"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="7"/>
       <c r="M68" s="12"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="4" t="s">
         <v>47</v>
       </c>
@@ -3993,15 +4129,15 @@
         <v>4809037</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" ref="H69:H78" si="24">IF(AND(C69&gt;=E69,C69&lt;=F69),1,0)</f>
+        <f t="shared" ref="H69:H78" si="23">IF(AND(C69&gt;=E69,C69&lt;=F69),1,0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ref="I69:I78" si="25">ABS(D69-C69)</f>
+        <f t="shared" ref="I69:I78" si="24">ABS(D69-C69)</f>
         <v>56</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="K69" s="4">
@@ -4021,8 +4157,9 @@
         <f>ABS(M69-L69)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -4045,15 +4182,15 @@
         <v>4585229</v>
       </c>
       <c r="H70" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="25"/>
         <v>83</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>493</v>
       </c>
       <c r="K70" s="4">
@@ -4066,15 +4203,16 @@
         <v>4</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:N78" si="26">ABS(M70-K70)</f>
+        <f t="shared" ref="N70:N78" si="25">ABS(M70-K70)</f>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O78" si="27">ABS(M70-L70)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <f t="shared" ref="O70:O78" si="26">ABS(M70-L70)</f>
+        <v>2</v>
+      </c>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="4" t="s">
         <v>51</v>
       </c>
@@ -4097,15 +4235,15 @@
         <v>4858887</v>
       </c>
       <c r="H71" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="25"/>
         <v>163</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>739</v>
       </c>
       <c r="K71" s="4">
@@ -4118,15 +4256,16 @@
         <v>4</v>
       </c>
       <c r="N71">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
@@ -4149,15 +4288,15 @@
         <v>4879400</v>
       </c>
       <c r="H72" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <f t="shared" si="25"/>
         <v>140</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>436</v>
       </c>
       <c r="K72" s="4">
@@ -4170,15 +4309,16 @@
         <v>4</v>
       </c>
       <c r="N72">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="4" t="s">
         <v>55</v>
       </c>
@@ -4201,15 +4341,15 @@
         <v>4878012</v>
       </c>
       <c r="H73" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>501</v>
       </c>
       <c r="K73" s="4">
@@ -4222,15 +4362,16 @@
         <v>4</v>
       </c>
       <c r="N73">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="4" t="s">
         <v>57</v>
       </c>
@@ -4253,15 +4394,15 @@
         <v>4827641</v>
       </c>
       <c r="H74" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="4">
-        <f t="shared" si="25"/>
         <v>129</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>447</v>
       </c>
       <c r="K74" s="4">
@@ -4274,15 +4415,16 @@
         <v>4</v>
       </c>
       <c r="N74">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
         <v>59</v>
       </c>
@@ -4305,15 +4447,15 @@
         <v>4888768</v>
       </c>
       <c r="H75" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <f t="shared" si="25"/>
         <v>145</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>721</v>
       </c>
       <c r="K75" s="4">
@@ -4326,15 +4468,16 @@
         <v>4</v>
       </c>
       <c r="N75">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="4" t="s">
         <v>61</v>
       </c>
@@ -4357,15 +4500,15 @@
         <v>4685848</v>
       </c>
       <c r="H76" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="4">
-        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>474</v>
       </c>
       <c r="K76" s="4">
@@ -4378,15 +4521,16 @@
         <v>4</v>
       </c>
       <c r="N76">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="4" t="s">
         <v>63</v>
       </c>
@@ -4409,15 +4553,15 @@
         <v>4711924</v>
       </c>
       <c r="H77" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="4">
-        <f t="shared" si="25"/>
         <v>158</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>734</v>
       </c>
       <c r="K77" s="4">
@@ -4430,15 +4574,16 @@
         <v>4</v>
       </c>
       <c r="N77">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>2</v>
+      </c>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
         <v>65</v>
       </c>
@@ -4461,132 +4606,137 @@
         <v>4938076</v>
       </c>
       <c r="H78" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="10">
-        <f t="shared" si="25"/>
         <v>468</v>
       </c>
-      <c r="J78" s="33">
-        <f t="shared" si="1"/>
+      <c r="J78" s="30">
+        <f t="shared" si="4"/>
         <v>3634901</v>
       </c>
       <c r="K78" s="10">
         <v>2</v>
       </c>
-      <c r="L78" s="27">
+      <c r="L78" s="25">
         <v>4</v>
       </c>
       <c r="M78" s="12">
         <v>5</v>
       </c>
       <c r="N78">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I79" s="38">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="35">
         <f>AVERAGE(I69:I78)</f>
         <v>151.9</v>
       </c>
-      <c r="J79" s="38">
-        <f t="shared" ref="J79:K79" si="28">AVERAGE(J69:J78)</f>
+      <c r="J79" s="35">
+        <f t="shared" ref="J79:K79" si="27">AVERAGE(J69:J78)</f>
         <v>363970.4</v>
       </c>
-      <c r="K79" s="38">
-        <f t="shared" si="28"/>
+      <c r="K79" s="35">
+        <f t="shared" si="27"/>
         <v>3.1</v>
       </c>
-      <c r="L79" s="45">
+      <c r="L79" s="42">
         <f>AVERAGE(L69:L78)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="M79" s="12"/>
-    </row>
-    <row r="80" spans="1:15" ht="28.8">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I80" s="39">
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="1:16" ht="28.8">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I80" s="36">
         <f>AVERAGE(I69:I78)</f>
         <v>151.9</v>
       </c>
-      <c r="J80" s="42">
+      <c r="J80" s="39">
         <f>AVERAGE(J69:J77)</f>
         <v>533.66666666666663</v>
       </c>
-      <c r="K80" s="42">
+      <c r="K80" s="39">
         <f>K79</f>
         <v>3.1</v>
       </c>
-      <c r="L80" s="48">
+      <c r="L80" s="45">
         <f>L79</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="M80" s="12"/>
-      <c r="N80" s="58">
+      <c r="N80" s="56">
         <f>AVERAGE(N69:O78)</f>
         <v>1.4</v>
       </c>
-      <c r="O80" s="58"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I81" s="39">
+      <c r="O80" s="56"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="36">
         <f>STDEV(I69:I78)</f>
         <v>116.97145900698264</v>
       </c>
-      <c r="J81" s="39">
+      <c r="J81" s="36">
         <f>STDEV(J69:J77)</f>
         <v>164.58736281987143</v>
       </c>
-      <c r="K81" s="39">
+      <c r="K81" s="36">
         <f>STDEV(K69:K78)</f>
         <v>0.73786478737262229</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="41">
         <f>STDEV(L69:L78)</f>
         <v>0.67494855771055307</v>
       </c>
       <c r="M81" s="12"/>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="1:16">
       <c r="J82" s="4"/>
       <c r="M82" s="12"/>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
@@ -4609,15 +4759,15 @@
         <v>1823511</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" ref="H83:H92" si="29">IF(AND(C83&gt;=E83,C83&lt;=F83),1,0)</f>
+        <f t="shared" ref="H83:H92" si="28">IF(AND(C83&gt;=E83,C83&lt;=F83),1,0)</f>
         <v>1</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" ref="I83:I92" si="30">ABS(D83-C83)</f>
+        <f t="shared" ref="I83:I92" si="29">ABS(D83-C83)</f>
         <v>99</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" ref="J83:J92" si="31">ABS(E83-C83)</f>
+        <f t="shared" ref="J83:J92" si="30">ABS(E83-C83)</f>
         <v>414</v>
       </c>
       <c r="K83" s="5">
@@ -4637,8 +4787,9 @@
         <f>ABS(M83-L83)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="4" t="s">
         <v>70</v>
       </c>
@@ -4661,15 +4812,15 @@
         <v>1860725</v>
       </c>
       <c r="H84" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="4">
+        <v>78</v>
+      </c>
+      <c r="J84" s="4">
         <f t="shared" si="30"/>
-        <v>78</v>
-      </c>
-      <c r="J84" s="4">
-        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="K84" s="5">
@@ -4682,15 +4833,16 @@
         <v>6</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:N92" si="32">ABS(M84-K84)</f>
+        <f t="shared" ref="N84:N92" si="31">ABS(M84-K84)</f>
         <v>5</v>
       </c>
       <c r="O84">
-        <f t="shared" ref="O84:O92" si="33">ABS(M84-L84)</f>
+        <f t="shared" ref="O84:O92" si="32">ABS(M84-L84)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
         <v>72</v>
       </c>
@@ -4713,15 +4865,15 @@
         <v>2135342</v>
       </c>
       <c r="H85" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="4">
+        <v>89</v>
+      </c>
+      <c r="J85" s="28">
         <f t="shared" si="30"/>
-        <v>89</v>
-      </c>
-      <c r="J85" s="30">
-        <f t="shared" si="31"/>
         <v>16448</v>
       </c>
       <c r="K85" s="5">
@@ -4734,15 +4886,16 @@
         <v>3</v>
       </c>
       <c r="N85">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="O85">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="4" t="s">
         <v>74</v>
       </c>
@@ -4765,15 +4918,15 @@
         <v>1877693</v>
       </c>
       <c r="H86" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="I86" s="4">
+        <v>107</v>
+      </c>
+      <c r="J86" s="4">
         <f t="shared" si="30"/>
-        <v>107</v>
-      </c>
-      <c r="J86" s="4">
-        <f t="shared" si="31"/>
         <v>406</v>
       </c>
       <c r="K86" s="5">
@@ -4786,275 +4939,281 @@
         <v>9</v>
       </c>
       <c r="N86">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="4">
+        <v>539300</v>
+      </c>
+      <c r="D87" s="4">
+        <v>539312</v>
+      </c>
+      <c r="E87" s="4">
+        <v>539224</v>
+      </c>
+      <c r="F87" s="4">
+        <v>539439</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1884562</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="30"/>
+        <v>76</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
+      <c r="M87" s="12">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="10">
+        <v>141800</v>
+      </c>
+      <c r="D88" s="10">
+        <v>141850</v>
+      </c>
+      <c r="E88" s="10">
+        <v>807603</v>
+      </c>
+      <c r="F88" s="10">
+        <v>808159</v>
+      </c>
+      <c r="G88" s="10">
+        <v>1809823</v>
+      </c>
+      <c r="H88" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="J88" s="30">
+        <f t="shared" si="30"/>
+        <v>665803</v>
+      </c>
+      <c r="K88" s="11">
+        <v>1</v>
+      </c>
+      <c r="L88" s="26">
+        <v>0</v>
+      </c>
+      <c r="M88" s="12">
+        <v>9</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="32"/>
         <v>9</v>
       </c>
-      <c r="O86">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="4">
-        <v>539300</v>
-      </c>
-      <c r="D87" s="4">
-        <v>539312</v>
-      </c>
-      <c r="E87" s="4">
-        <v>539224</v>
-      </c>
-      <c r="F87" s="4">
-        <v>539439</v>
-      </c>
-      <c r="G87" s="4">
-        <v>1884562</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="4">
+        <v>826900</v>
+      </c>
+      <c r="D89" s="4">
+        <v>826973</v>
+      </c>
+      <c r="E89" s="4">
+        <v>826460</v>
+      </c>
+      <c r="F89" s="4">
+        <v>827016</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1843731</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="I87" s="4">
+        <v>73</v>
+      </c>
+      <c r="J89" s="4">
         <f t="shared" si="30"/>
-        <v>12</v>
-      </c>
-      <c r="J87" s="4">
+        <v>440</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="5">
+        <v>1</v>
+      </c>
+      <c r="M89" s="12">
+        <v>9</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="31"/>
-        <v>76</v>
-      </c>
-      <c r="K87" s="5">
-        <v>0</v>
-      </c>
-      <c r="L87" s="5">
-        <v>1</v>
-      </c>
-      <c r="M87" s="12">
-        <v>3</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="10">
-        <v>141800</v>
-      </c>
-      <c r="D88" s="10">
-        <v>141850</v>
-      </c>
-      <c r="E88" s="10">
-        <v>807603</v>
-      </c>
-      <c r="F88" s="10">
-        <v>808159</v>
-      </c>
-      <c r="G88" s="10">
-        <v>1809823</v>
-      </c>
-      <c r="H88" s="10">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="10">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="J88" s="33">
-        <f t="shared" si="31"/>
-        <v>665803</v>
-      </c>
-      <c r="K88" s="11">
-        <v>1</v>
-      </c>
-      <c r="L88" s="28">
-        <v>0</v>
-      </c>
-      <c r="M88" s="12">
         <v>9</v>
       </c>
-      <c r="N88">
+      <c r="O89">
         <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="O88">
-        <f t="shared" si="33"/>
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="4">
+        <v>816400</v>
+      </c>
+      <c r="D90" s="4">
+        <v>816438</v>
+      </c>
+      <c r="E90" s="4">
+        <v>816027</v>
+      </c>
+      <c r="F90" s="4">
+        <v>816571</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1851618</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="29"/>
+        <v>38</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="30"/>
+        <v>373</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>1</v>
+      </c>
+      <c r="M90" s="12">
+        <v>8</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="4">
+        <v>156900</v>
+      </c>
+      <c r="D91" s="4">
+        <v>156978</v>
+      </c>
+      <c r="E91" s="4">
+        <v>156961</v>
+      </c>
+      <c r="F91" s="4">
+        <v>157517</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1859582</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <f t="shared" si="29"/>
+        <v>78</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="30"/>
+        <v>61</v>
+      </c>
+      <c r="K91" s="5">
+        <v>1</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="4">
-        <v>826900</v>
-      </c>
-      <c r="D89" s="4">
-        <v>826973</v>
-      </c>
-      <c r="E89" s="4">
-        <v>826460</v>
-      </c>
-      <c r="F89" s="4">
-        <v>827016</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1843731</v>
-      </c>
-      <c r="H89" s="4">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" si="30"/>
-        <v>73</v>
-      </c>
-      <c r="J89" s="4">
+      <c r="N91">
         <f t="shared" si="31"/>
-        <v>440</v>
-      </c>
-      <c r="K89" s="5">
-        <v>0</v>
-      </c>
-      <c r="L89" s="5">
-        <v>1</v>
-      </c>
-      <c r="M89" s="12">
-        <v>9</v>
-      </c>
-      <c r="N89">
+        <v>8</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="32"/>
         <v>9</v>
       </c>
-      <c r="O89">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="4">
-        <v>816400</v>
-      </c>
-      <c r="D90" s="4">
-        <v>816438</v>
-      </c>
-      <c r="E90" s="4">
-        <v>816027</v>
-      </c>
-      <c r="F90" s="4">
-        <v>816571</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1851618</v>
-      </c>
-      <c r="H90" s="4">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="I90" s="4">
-        <f t="shared" si="30"/>
-        <v>38</v>
-      </c>
-      <c r="J90" s="4">
-        <f t="shared" si="31"/>
-        <v>373</v>
-      </c>
-      <c r="K90" s="5">
-        <v>0</v>
-      </c>
-      <c r="L90" s="5">
-        <v>1</v>
-      </c>
-      <c r="M90" s="12">
-        <v>8</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="33"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="4">
-        <v>156900</v>
-      </c>
-      <c r="D91" s="4">
-        <v>156978</v>
-      </c>
-      <c r="E91" s="4">
-        <v>156961</v>
-      </c>
-      <c r="F91" s="4">
-        <v>157517</v>
-      </c>
-      <c r="G91" s="4">
-        <v>1859582</v>
-      </c>
-      <c r="H91" s="4">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="4">
-        <f t="shared" si="30"/>
-        <v>78</v>
-      </c>
-      <c r="J91" s="4">
-        <f t="shared" si="31"/>
-        <v>61</v>
-      </c>
-      <c r="K91" s="5">
-        <v>1</v>
-      </c>
-      <c r="L91" s="5">
-        <v>0</v>
-      </c>
-      <c r="M91" s="12">
-        <v>9</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="33"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="4" t="s">
         <v>86</v>
       </c>
@@ -5077,15 +5236,15 @@
         <v>1869610</v>
       </c>
       <c r="H92" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
+        <v>78</v>
+      </c>
+      <c r="J92" s="4">
         <f t="shared" si="30"/>
-        <v>78</v>
-      </c>
-      <c r="J92" s="4">
-        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="K92" s="5">
@@ -5098,15 +5257,16 @@
         <v>9</v>
       </c>
       <c r="N92">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="32"/>
-        <v>8</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="33"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5114,28 +5274,29 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I93" s="38">
+      <c r="H93" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I93" s="35">
         <f>AVERAGE(I83:I92)</f>
         <v>70.2</v>
       </c>
-      <c r="J93" s="38">
+      <c r="J93" s="35">
         <f>AVERAGE(J83:J92)</f>
         <v>68414.3</v>
       </c>
-      <c r="K93" s="38">
+      <c r="K93" s="35">
         <f>AVERAGE(K83:K92)</f>
         <v>0.4</v>
       </c>
-      <c r="L93" s="41">
+      <c r="L93" s="38">
         <f>AVERAGE(L83:L92)</f>
         <v>0.5</v>
       </c>
       <c r="M93" s="12"/>
-    </row>
-    <row r="94" spans="1:15" ht="28.8">
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5143,33 +5304,34 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I94" s="39">
+      <c r="H94" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I94" s="36">
         <f>AVERAGE(I83:I92)</f>
         <v>70.2</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="36">
         <f>AVERAGE(J83,J84,J86,J87,J89,J90,J91,J92)</f>
         <v>236.5</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="37">
         <f>K93</f>
         <v>0.4</v>
       </c>
-      <c r="L94" s="42">
+      <c r="L94" s="39">
         <f>L93</f>
         <v>0.5</v>
       </c>
       <c r="M94" s="12"/>
-      <c r="N94" s="58">
+      <c r="N94" s="56">
         <f>AVERAGE(N83:O92)</f>
         <v>6.95</v>
       </c>
-      <c r="O94" s="58"/>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="O94" s="56"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5177,32 +5339,34 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I95" s="39">
+      <c r="H95" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="36">
         <f>STDEV(I83:I92)</f>
         <v>28.981986742726168</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="36">
         <f>STDEV(J83,J84,J86,J87,J89,J90,J91,J92)</f>
         <v>184.56202983588705</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="37">
         <f>STDEV(K83:K92)</f>
         <v>0.5163977794943222</v>
       </c>
-      <c r="L95" s="42">
+      <c r="L95" s="39">
         <f>STDEV(L83:L92)</f>
         <v>0.52704627669472992</v>
       </c>
       <c r="M95" s="12"/>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="1:16">
       <c r="J96" s="4"/>
       <c r="M96" s="12"/>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -5253,248 +5417,249 @@
         <f>ABS(M97-L97)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="H98" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I98" s="36">
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="H98" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="I98" s="33">
         <v>467</v>
       </c>
-      <c r="J98" s="36">
+      <c r="J98" s="33">
         <v>106176</v>
       </c>
-      <c r="K98" s="37">
-        <v>0</v>
-      </c>
-      <c r="L98" s="36">
-        <v>0</v>
-      </c>
-      <c r="N98" s="60">
+      <c r="K98" s="34">
+        <v>0</v>
+      </c>
+      <c r="L98" s="33">
+        <v>0</v>
+      </c>
+      <c r="N98" s="55">
         <f>AVERAGE(N97:O97)</f>
         <v>0</v>
       </c>
-      <c r="O98" s="60"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="H99" s="35"/>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="O98" s="55"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="H99" s="32"/>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="72">
+      <c r="A103" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="72">
-      <c r="A103" s="18" t="s">
+      <c r="B103" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="C104" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="D104" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
         <v>147</v>
       </c>
-      <c r="D104" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="E104" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F104" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" t="s">
+      <c r="B105" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="C105" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="D105" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D105" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F105" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="E105" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="D106" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F106" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="E106" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="D108" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F108" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D107" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" t="s">
+      <c r="C109" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F109" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" t="s">
         <v>136</v>
       </c>
-      <c r="B108" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F108" s="55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" t="s">
+      <c r="B110" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F110" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C109" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D109" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="F109" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" s="55" t="s">
+      <c r="B111" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E110" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F110" s="55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" t="s">
+      <c r="C111" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F111" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" t="s">
         <v>139</v>
       </c>
-      <c r="B111" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C111" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" t="s">
-        <v>140</v>
-      </c>
-      <c r="B112" s="55">
+      <c r="B112" s="52">
         <v>467</v>
       </c>
-      <c r="C112" s="55">
+      <c r="C112" s="52">
         <v>106176</v>
       </c>
-      <c r="D112" s="55">
-        <v>0</v>
-      </c>
-      <c r="E112" s="55">
-        <v>0</v>
-      </c>
-      <c r="F112" s="55">
+      <c r="D112" s="52">
+        <v>0</v>
+      </c>
+      <c r="E112" s="52">
+        <v>0</v>
+      </c>
+      <c r="F112" s="52">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N80:O80"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N80:O80"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/OriEval.xlsx
+++ b/OriEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\seqinf_detection_replication_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A83C3A-9EA4-4062-A0A2-323C89FADB47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468F7707-D6CF-4D92-A6EF-FEBB0AF4DD33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="174">
   <si>
     <t>Accession Number</t>
   </si>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>3073 ± 3336</t>
+  </si>
+  <si>
+    <t>Known Ori Start</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Known Orics/Control</t>
+  </si>
+  <si>
+    <t>Average for Test Geomes</t>
   </si>
 </sst>
 </file>
@@ -634,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,18 +790,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -832,6 +832,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1302,62 +1317,62 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:19" s="61" customFormat="1">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:19" s="57" customFormat="1">
+      <c r="A4" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="56">
         <v>3628500</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="57">
         <v>3628624</v>
       </c>
-      <c r="E4" s="60">
-        <v>1</v>
-      </c>
-      <c r="F4" s="60">
+      <c r="E4" s="56">
+        <v>1</v>
+      </c>
+      <c r="F4" s="56">
         <v>477</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="56">
         <v>3654135</v>
       </c>
-      <c r="H4" s="62">
-        <f t="shared" ref="H4:H30" si="0">IF(AND(C4&gt;=E4,C4&lt;=F4),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="62">
+      <c r="H4" s="58">
+        <f>IF(AND(C4&gt;=E4,C4&lt;=F4),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="58">
         <f>ABS(D4-C4)</f>
         <v>124</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="59">
         <f>P4</f>
         <v>25634</v>
       </c>
-      <c r="K4" s="64">
-        <v>0</v>
-      </c>
-      <c r="L4" s="64">
-        <v>0</v>
-      </c>
-      <c r="M4" s="64">
+      <c r="K4" s="60">
+        <v>0</v>
+      </c>
+      <c r="L4" s="60">
+        <v>0</v>
+      </c>
+      <c r="M4" s="60">
         <v>3</v>
       </c>
-      <c r="N4" s="65">
-        <f t="shared" ref="N4:N5" si="1">ABS(M4-K4)</f>
+      <c r="N4" s="61">
+        <f t="shared" ref="N4:N5" si="0">ABS(M4-K4)</f>
         <v>3</v>
       </c>
-      <c r="O4" s="65">
-        <f t="shared" ref="O4:O5" si="2">ABS(M4-L4)</f>
+      <c r="O4" s="61">
+        <f t="shared" ref="O4:O5" si="1">ABS(M4-L4)</f>
         <v>3</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P59" si="3">ABS(ABS(G4-E4)-ABS(0-C4))</f>
+        <f>ABS(ABS(G4-E4)-ABS(0-C4))</f>
         <v>25634</v>
       </c>
-      <c r="Q4" s="65"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
@@ -1382,7 +1397,7 @@
         <v>1042519</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C5&gt;=E5,C5&lt;=F5),1,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="4">
@@ -1390,7 +1405,7 @@
         <v>85</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J78" si="4">ABS(E5-C5)</f>
+        <f>ABS(E5-C5)</f>
         <v>326</v>
       </c>
       <c r="K5" s="21">
@@ -1403,11 +1418,11 @@
         <v>3</v>
       </c>
       <c r="N5" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P5" s="2"/>
@@ -1473,11 +1488,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="M7" s="21"/>
-      <c r="N7" s="57">
+      <c r="N7" s="74">
         <f>AVERAGE(N3:O5)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="O7" s="57"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="27"/>
@@ -1561,7 +1576,7 @@
         <v>4641652</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C10&gt;=E10,C10&lt;=F10),1,0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="28">
@@ -1569,7 +1584,7 @@
         <v>1880</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E10-C10)</f>
         <v>1843</v>
       </c>
       <c r="K10" s="21">
@@ -1616,7 +1631,7 @@
         <v>5498578</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C11&gt;=E11,C11&lt;=F11),1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="4">
@@ -1624,7 +1639,7 @@
         <v>59</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E11-C11)</f>
         <v>22</v>
       </c>
       <c r="K11" s="22">
@@ -1637,11 +1652,11 @@
         <v>4</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" ref="N11:N14" si="5">ABS(M11-K11)</f>
+        <f t="shared" ref="N11:N14" si="2">ABS(M11-K11)</f>
         <v>2</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" ref="O11:O14" si="6">ABS(M11-L11)</f>
+        <f t="shared" ref="O11:O14" si="3">ABS(M11-L11)</f>
         <v>2</v>
       </c>
       <c r="P11" s="2"/>
@@ -1669,7 +1684,7 @@
         <v>5132068</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C12&gt;=E12,C12&lt;=F12),1,0)</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
@@ -1677,7 +1692,7 @@
         <v>67</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E12-C12)</f>
         <v>104</v>
       </c>
       <c r="K12" s="22">
@@ -1690,11 +1705,11 @@
         <v>4</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P12" s="2"/>
@@ -1722,7 +1737,7 @@
         <v>4747819</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C13&gt;=E13,C13&lt;=F13),1,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
@@ -1730,7 +1745,7 @@
         <v>84</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E13-C13)</f>
         <v>121</v>
       </c>
       <c r="K13" s="22">
@@ -1743,68 +1758,68 @@
         <v>4</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:19" s="61" customFormat="1">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:19" s="57" customFormat="1">
+      <c r="A14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="57">
         <v>400</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="58">
         <v>847</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="58">
         <v>5225716</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="58">
         <v>5226093</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="57">
         <v>5273097</v>
       </c>
-      <c r="H14" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="62">
+      <c r="H14" s="58">
+        <f>IF(AND(C14&gt;=E14,C14&lt;=F14),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="58">
         <f>ABS(D14-C14)</f>
         <v>447</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="59">
         <f>P14</f>
         <v>46981</v>
       </c>
-      <c r="K14" s="66">
-        <v>1</v>
-      </c>
-      <c r="L14" s="66">
-        <v>1</v>
-      </c>
-      <c r="M14" s="61">
+      <c r="K14" s="62">
+        <v>1</v>
+      </c>
+      <c r="L14" s="62">
+        <v>1</v>
+      </c>
+      <c r="M14" s="57">
         <v>4</v>
       </c>
-      <c r="N14" s="65">
-        <f t="shared" si="5"/>
+      <c r="N14" s="61">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O14" s="65">
-        <f t="shared" si="6"/>
+      <c r="O14" s="61">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G14-E14)-ABS(0-C14))</f>
         <v>46981</v>
       </c>
     </row>
@@ -1824,7 +1839,7 @@
         <v>9814.2000000000007</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" ref="K15" si="7">AVERAGE(K10:K14)</f>
+        <f t="shared" ref="K15" si="4">AVERAGE(K10:K14)</f>
         <v>1.8</v>
       </c>
       <c r="L15" s="47">
@@ -1853,11 +1868,11 @@
         <f>L15</f>
         <v>1.8</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="74">
         <f>AVERAGE(N10:O14)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="O16" s="57"/>
+      <c r="O16" s="74"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
@@ -1917,15 +1932,15 @@
         <v>4641652</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C19&gt;=E19,C19&lt;=F19),1,0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19:I30" si="8">ABS(D19-C19)</f>
+        <f>ABS(D19-C19)</f>
         <v>1880</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E19-C19)</f>
         <v>1843</v>
       </c>
       <c r="K19">
@@ -1970,15 +1985,15 @@
         <v>5498578</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C20&gt;=E20,C20&lt;=F20),1,0)</f>
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D20-C20)</f>
         <v>59</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E20-C20)</f>
         <v>22</v>
       </c>
       <c r="K20">
@@ -1991,11 +2006,11 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N30" si="9">ABS(M20-K20)</f>
+        <f t="shared" ref="N20:N30" si="5">ABS(M20-K20)</f>
         <v>2</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O30" si="10">ABS(M20-L20)</f>
+        <f t="shared" ref="O20:O30" si="6">ABS(M20-L20)</f>
         <v>2</v>
       </c>
       <c r="P20" s="2"/>
@@ -2023,15 +2038,15 @@
         <v>5132068</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C21&gt;=E21,C21&lt;=F21),1,0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D21-C21)</f>
         <v>67</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E21-C21)</f>
         <v>104</v>
       </c>
       <c r="K21">
@@ -2044,11 +2059,11 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P21" s="2"/>
@@ -2076,15 +2091,15 @@
         <v>4747819</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C22&gt;=E22,C22&lt;=F22),1,0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D22-C22)</f>
         <v>84</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E22-C22)</f>
         <v>121</v>
       </c>
       <c r="K22">
@@ -2097,68 +2112,68 @@
         <v>4</v>
       </c>
       <c r="N22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" s="61" customFormat="1">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:16" s="57" customFormat="1">
+      <c r="A23" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="57">
         <v>400</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="58">
         <v>847</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="58">
         <v>5225716</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="58">
         <v>5226093</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="57">
         <v>5273097</v>
       </c>
-      <c r="H23" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="62">
-        <f t="shared" si="8"/>
+      <c r="H23" s="58">
+        <f>IF(AND(C23&gt;=E23,C23&lt;=F23),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="58">
+        <f>ABS(D23-C23)</f>
         <v>447</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="59">
         <f>P23</f>
         <v>46981</v>
       </c>
-      <c r="K23" s="61">
-        <v>1</v>
-      </c>
-      <c r="L23" s="61">
-        <v>1</v>
-      </c>
-      <c r="M23" s="61">
+      <c r="K23" s="57">
+        <v>1</v>
+      </c>
+      <c r="L23" s="57">
+        <v>1</v>
+      </c>
+      <c r="M23" s="57">
         <v>4</v>
       </c>
-      <c r="N23" s="61">
-        <f t="shared" si="9"/>
+      <c r="N23" s="57">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O23" s="61">
-        <f t="shared" si="10"/>
+      <c r="O23" s="57">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G23-E23)-ABS(0-C23))</f>
         <v>46981</v>
       </c>
     </row>
@@ -2185,11 +2200,11 @@
         <v>4607202</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C24&gt;=E24,C24&lt;=F24),1,0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D24-C24)</f>
         <v>22</v>
       </c>
       <c r="J24" s="28">
@@ -2206,11 +2221,11 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P24" s="2"/>
@@ -2238,15 +2253,15 @@
         <v>4369232</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C25&gt;=E25,C25&lt;=F25),1,0)</f>
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D25-C25)</f>
         <v>63</v>
       </c>
       <c r="J25" s="28">
-        <f t="shared" si="4"/>
+        <f>ABS(E25-C25)</f>
         <v>569217</v>
       </c>
       <c r="K25">
@@ -2259,11 +2274,11 @@
         <v>4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="P25" s="2"/>
@@ -2291,15 +2306,15 @@
         <v>4857450</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C26&gt;=E26,C26&lt;=F26),1,0)</f>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D26-C26)</f>
         <v>664</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E26-C26)</f>
         <v>88</v>
       </c>
       <c r="K26">
@@ -2312,11 +2327,11 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P26" s="2"/>
@@ -2344,15 +2359,15 @@
         <v>4809037</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C27&gt;=E27,C27&lt;=F27),1,0)</f>
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D27-C27)</f>
         <v>56</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E27-C27)</f>
         <v>258</v>
       </c>
       <c r="K27">
@@ -2365,11 +2380,11 @@
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P27" s="2"/>
@@ -2397,15 +2412,15 @@
         <v>5314581</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C28&gt;=E28,C28&lt;=F28),1,0)</f>
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D28-C28)</f>
         <v>343</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E28-C28)</f>
         <v>1218</v>
       </c>
       <c r="K28">
@@ -2418,11 +2433,11 @@
         <v>4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P28" s="2"/>
@@ -2450,15 +2465,15 @@
         <v>5280350</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C29&gt;=E29,C29&lt;=F29),1,0)</f>
         <v>0</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="8"/>
+        <f>ABS(D29-C29)</f>
         <v>99</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E29-C29)</f>
         <v>1050</v>
       </c>
       <c r="K29">
@@ -2471,11 +2486,11 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="O29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="P29" s="2"/>
@@ -2503,15 +2518,15 @@
         <v>5333942</v>
       </c>
       <c r="H30" s="24">
-        <f t="shared" si="0"/>
+        <f>IF(AND(C30&gt;=E30,C30&lt;=F30),1,0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="24">
-        <f t="shared" si="8"/>
+        <f>ABS(D30-C30)</f>
         <v>145</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" si="4"/>
+        <f>ABS(E30-C30)</f>
         <v>699</v>
       </c>
       <c r="K30" s="27">
@@ -2524,11 +2539,11 @@
         <v>4</v>
       </c>
       <c r="N30" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O30" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="P30" s="32"/>
@@ -2575,11 +2590,11 @@
         <f>L31</f>
         <v>1.5833333333333333</v>
       </c>
-      <c r="N32" s="56">
+      <c r="N32" s="73">
         <f>AVERAGE(N19:O30)</f>
         <v>2.2916666666666665</v>
       </c>
-      <c r="O32" s="56"/>
+      <c r="O32" s="73"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:18">
@@ -2613,81 +2628,81 @@
       <c r="J34" s="4"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:18" s="61" customFormat="1">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:18" s="57" customFormat="1">
+      <c r="A35" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="61">
-        <v>0</v>
-      </c>
-      <c r="D35" s="61">
-        <v>1</v>
-      </c>
-      <c r="E35" s="61">
+      <c r="C35" s="57">
+        <v>0</v>
+      </c>
+      <c r="D35" s="57">
+        <v>1</v>
+      </c>
+      <c r="E35" s="57">
         <v>2961047</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="57">
         <v>234</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="57">
         <v>2961149</v>
       </c>
-      <c r="H35" s="62">
-        <v>1</v>
-      </c>
-      <c r="I35" s="62">
+      <c r="H35" s="58">
+        <v>1</v>
+      </c>
+      <c r="I35" s="58">
         <f>ABS(D35-C35)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="62">
+      <c r="J35" s="58">
         <f>P35</f>
         <v>102</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="57">
         <v>3</v>
       </c>
-      <c r="L35" s="61">
+      <c r="L35" s="57">
         <v>3</v>
       </c>
-      <c r="M35" s="61">
+      <c r="M35" s="57">
         <v>3</v>
       </c>
-      <c r="N35" s="61">
+      <c r="N35" s="57">
         <f>ABS(M35-K35)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="61">
+      <c r="O35" s="57">
         <f>ABS(M35-L35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G35-E35)-ABS(0-C35))</f>
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="74" customFormat="1">
-      <c r="A36" s="74" t="s">
+    <row r="36" spans="1:18" s="70" customFormat="1">
+      <c r="A36" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="70">
         <v>2897200</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="70">
         <v>2905915</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="70">
         <v>2906069</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F36" s="70">
         <v>312</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G36" s="70">
         <v>2897536</v>
       </c>
       <c r="H36" s="28">
@@ -2698,7 +2713,7 @@
         <v>8715</v>
       </c>
       <c r="J36" s="28">
-        <f t="shared" si="4"/>
+        <f>ABS(E36-C36)</f>
         <v>8869</v>
       </c>
       <c r="K36" s="28">
@@ -2710,68 +2725,68 @@
       <c r="M36" s="28">
         <v>3</v>
       </c>
-      <c r="N36" s="74">
-        <f t="shared" ref="N36:N37" si="11">ABS(M36-K36)</f>
-        <v>2</v>
-      </c>
-      <c r="O36" s="74">
-        <f t="shared" ref="O36:O37" si="12">ABS(M36-L36)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="75"/>
-    </row>
-    <row r="37" spans="1:18" s="61" customFormat="1">
-      <c r="A37" s="61" t="s">
+      <c r="N36" s="70">
+        <f t="shared" ref="N36:N37" si="7">ABS(M36-K36)</f>
+        <v>2</v>
+      </c>
+      <c r="O36" s="70">
+        <f t="shared" ref="O36:O37" si="8">ABS(M36-L36)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="71"/>
+    </row>
+    <row r="37" spans="1:18" s="57" customFormat="1">
+      <c r="A37" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="61">
-        <v>0</v>
-      </c>
-      <c r="D37" s="61">
+      <c r="C37" s="57">
+        <v>0</v>
+      </c>
+      <c r="D37" s="57">
         <v>3288308</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="57">
         <v>3288455</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="57">
         <v>370</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="57">
         <v>3288558</v>
       </c>
-      <c r="H37" s="62">
-        <v>1</v>
-      </c>
-      <c r="I37" s="62">
+      <c r="H37" s="58">
+        <v>1</v>
+      </c>
+      <c r="I37" s="58">
         <f>ABS(D37-C37-G37)</f>
         <v>250</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="58">
         <f>P37</f>
         <v>103</v>
       </c>
-      <c r="K37" s="61">
-        <v>1</v>
-      </c>
-      <c r="L37" s="61">
+      <c r="K37" s="57">
+        <v>1</v>
+      </c>
+      <c r="L37" s="57">
         <v>3</v>
       </c>
-      <c r="M37" s="61">
+      <c r="M37" s="57">
         <v>5</v>
       </c>
-      <c r="N37" s="61">
-        <f t="shared" si="11"/>
+      <c r="N37" s="57">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="O37" s="61">
-        <f t="shared" si="12"/>
+      <c r="O37" s="57">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G37-E37)-ABS(0-C37))</f>
         <v>103</v>
       </c>
     </row>
@@ -2796,11 +2811,11 @@
         <f>AVERAGE(L35,L37)</f>
         <v>3</v>
       </c>
-      <c r="N38" s="58">
+      <c r="N38" s="75">
         <f>AVERAGE(N35,O35,O37,N37)</f>
         <v>1.5</v>
       </c>
-      <c r="O38" s="58"/>
+      <c r="O38" s="75"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:18">
@@ -2861,11 +2876,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" ref="I41:I50" si="13">ABS(D41-C41)</f>
+        <f>ABS(D41-C41)</f>
         <v>1880</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="4"/>
+        <f>ABS(E41-C41)</f>
         <v>1843</v>
       </c>
       <c r="K41" s="4">
@@ -2910,15 +2925,15 @@
         <v>5132068</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" ref="H42:H49" si="14">IF(AND(C42&gt;=E42,C42&lt;=F42),1,0)</f>
+        <f>IF(AND(C42&gt;=E42,C42&lt;=F42),1,0)</f>
         <v>0</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D42-C42)</f>
         <v>67</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E42-C42)</f>
         <v>104</v>
       </c>
       <c r="K42" s="4">
@@ -2931,11 +2946,11 @@
         <v>4</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" ref="N42:N50" si="15">ABS(M42-K42)</f>
+        <f t="shared" ref="N42:N50" si="9">ABS(M42-K42)</f>
         <v>2</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O50" si="16">ABS(M42-L42)</f>
+        <f t="shared" ref="O42:O50" si="10">ABS(M42-L42)</f>
         <v>2</v>
       </c>
       <c r="P42" s="2"/>
@@ -2963,15 +2978,15 @@
         <v>4747819</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C43&gt;=E43,C43&lt;=F43),1,0)</f>
         <v>0</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D43-C43)</f>
         <v>84</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E43-C43)</f>
         <v>121</v>
       </c>
       <c r="K43" s="4">
@@ -2984,69 +2999,69 @@
         <v>4</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P43" s="2"/>
-      <c r="R43" s="72"/>
-    </row>
-    <row r="44" spans="1:18" s="61" customFormat="1">
-      <c r="A44" s="62" t="s">
+      <c r="R43" s="68"/>
+    </row>
+    <row r="44" spans="1:18" s="57" customFormat="1">
+      <c r="A44" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C44" s="58">
         <v>400</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="58">
         <v>847</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="58">
         <v>5225716</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="58">
         <v>5226093</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="58">
         <v>5273097</v>
       </c>
-      <c r="H44" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="62">
-        <f t="shared" si="13"/>
+      <c r="H44" s="58">
+        <f>IF(AND(C44&gt;=E44,C44&lt;=F44),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="58">
+        <f>ABS(D44-C44)</f>
         <v>447</v>
       </c>
-      <c r="J44" s="63">
+      <c r="J44" s="59">
         <f>P44</f>
         <v>46981</v>
       </c>
-      <c r="K44" s="62">
-        <v>1</v>
-      </c>
-      <c r="L44" s="68">
-        <v>1</v>
-      </c>
-      <c r="M44" s="69">
+      <c r="K44" s="58">
+        <v>1</v>
+      </c>
+      <c r="L44" s="64">
+        <v>1</v>
+      </c>
+      <c r="M44" s="65">
         <v>4</v>
       </c>
-      <c r="N44" s="70">
-        <f t="shared" si="15"/>
+      <c r="N44" s="66">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="O44" s="61">
-        <f t="shared" si="16"/>
+      <c r="O44" s="57">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G44-E44)-ABS(0-C44))</f>
         <v>46981</v>
       </c>
     </row>
@@ -3073,15 +3088,15 @@
         <v>5498578</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C45&gt;=E45,C45&lt;=F45),1,0)</f>
         <v>1</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D45-C45)</f>
         <v>59</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E45-C45)</f>
         <v>22</v>
       </c>
       <c r="K45" s="4">
@@ -3094,11 +3109,11 @@
         <v>4</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P45" s="2"/>
@@ -3126,15 +3141,15 @@
         <v>5231428</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C46&gt;=E46,C46&lt;=F46),1,0)</f>
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D46-C46)</f>
         <v>770</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E46-C46)</f>
         <v>733</v>
       </c>
       <c r="K46" s="4">
@@ -3147,11 +3162,11 @@
         <v>4</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P46" s="2"/>
@@ -3179,15 +3194,15 @@
         <v>5065741</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C47&gt;=E47,C47&lt;=F47),1,0)</f>
         <v>0</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D47-C47)</f>
         <v>65</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E47-C47)</f>
         <v>102</v>
       </c>
       <c r="K47" s="4">
@@ -3200,11 +3215,11 @@
         <v>4</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P47" s="2"/>
@@ -3232,15 +3247,15 @@
         <v>4938920</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C48&gt;=E48,C48&lt;=F48),1,0)</f>
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D48-C48)</f>
         <v>86</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E48-C48)</f>
         <v>123</v>
       </c>
       <c r="K48" s="4">
@@ -3253,11 +3268,11 @@
         <v>4</v>
       </c>
       <c r="N48" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P48" s="2"/>
@@ -3285,15 +3300,15 @@
         <v>5082025</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="14"/>
+        <f>IF(AND(C49&gt;=E49,C49&lt;=F49),1,0)</f>
         <v>0</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D49-C49)</f>
         <v>62</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E49-C49)</f>
         <v>99</v>
       </c>
       <c r="K49" s="4">
@@ -3306,11 +3321,11 @@
         <v>4</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="P49" s="2"/>
@@ -3342,11 +3357,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="13"/>
+        <f>ABS(D50-C50)</f>
         <v>76</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E50-C50)</f>
         <v>113</v>
       </c>
       <c r="K50" s="4">
@@ -3359,11 +3374,11 @@
         <v>3</v>
       </c>
       <c r="N50" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="P50" s="2"/>
@@ -3384,11 +3399,11 @@
         <v>359.6</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" ref="J51:K51" si="17">AVERAGE(J41:J50)</f>
+        <f t="shared" ref="J51:K51" si="11">AVERAGE(J41:J50)</f>
         <v>5024.1000000000004</v>
       </c>
       <c r="K51" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
       <c r="L51" s="44">
@@ -3426,11 +3441,11 @@
         <v>1.9</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="56">
+      <c r="N52" s="73">
         <f>AVERAGE(N41:O50)</f>
         <v>1.9</v>
       </c>
-      <c r="O52" s="56"/>
+      <c r="O52" s="73"/>
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16">
@@ -3492,15 +3507,15 @@
         <v>3928357</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" ref="H55:H64" si="18">IF(AND(C55&gt;=E55,C55&lt;=F55),1,0)</f>
+        <f>IF(AND(C55&gt;=E55,C55&lt;=F55),1,0)</f>
         <v>0</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" ref="I55:I64" si="19">ABS(D55-C55)</f>
+        <f>ABS(D55-C55)</f>
         <v>229</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E55-C55)</f>
         <v>8384</v>
       </c>
       <c r="K55" s="4">
@@ -3545,15 +3560,15 @@
         <v>4077462</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C56&gt;=E56,C56&lt;=F56),1,0)</f>
         <v>0</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="19"/>
+        <f>ABS(D56-C56)</f>
         <v>99</v>
       </c>
       <c r="J56" s="28">
-        <f t="shared" si="4"/>
+        <f>ABS(E56-C56)</f>
         <v>34889</v>
       </c>
       <c r="K56" s="4">
@@ -3566,68 +3581,68 @@
         <v>3</v>
       </c>
       <c r="N56">
-        <f t="shared" ref="N56:N64" si="20">ABS(M56-K56)</f>
+        <f t="shared" ref="N56:N64" si="12">ABS(M56-K56)</f>
         <v>2</v>
       </c>
       <c r="O56">
-        <f t="shared" ref="O56:O64" si="21">ABS(M56-L56)</f>
+        <f t="shared" ref="O56:O64" si="13">ABS(M56-L56)</f>
         <v>3</v>
       </c>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" s="61" customFormat="1">
-      <c r="A57" s="62" t="s">
+    <row r="57" spans="1:16" s="57" customFormat="1">
+      <c r="A57" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="62">
+      <c r="C57" s="58">
         <v>1108100</v>
       </c>
-      <c r="D57" s="62">
+      <c r="D57" s="58">
         <v>1108189</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="58">
         <v>151587</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="58">
         <v>152473</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="58">
         <v>1108250</v>
       </c>
-      <c r="H57" s="62">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="62">
-        <f t="shared" si="19"/>
+      <c r="H57" s="58">
+        <f>IF(AND(C57&gt;=E57,C57&lt;=F57),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="58">
+        <f>ABS(D57-C57)</f>
         <v>89</v>
       </c>
-      <c r="J57" s="63">
+      <c r="J57" s="59">
         <f>P57</f>
         <v>151437</v>
       </c>
-      <c r="K57" s="62">
-        <v>0</v>
-      </c>
-      <c r="L57" s="68">
-        <v>0</v>
-      </c>
-      <c r="M57" s="69">
+      <c r="K57" s="58">
+        <v>0</v>
+      </c>
+      <c r="L57" s="64">
+        <v>0</v>
+      </c>
+      <c r="M57" s="65">
         <v>14</v>
       </c>
-      <c r="N57" s="61">
-        <f t="shared" si="20"/>
+      <c r="N57" s="57">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="O57" s="61">
-        <f t="shared" si="21"/>
+      <c r="O57" s="57">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="P57" s="73">
-        <f t="shared" si="3"/>
+      <c r="P57" s="69">
+        <f>ABS(ABS(G57-E57)-ABS(0-C57))</f>
         <v>151437</v>
       </c>
     </row>
@@ -3654,15 +3669,15 @@
         <v>3024069</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C58&gt;=E58,C58&lt;=F58),1,0)</f>
         <v>0</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="19"/>
+        <f>ABS(D58-C58)</f>
         <v>79</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E58-C58)</f>
         <v>1344</v>
       </c>
       <c r="K58" s="4">
@@ -3675,67 +3690,67 @@
         <v>5</v>
       </c>
       <c r="N58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" s="61" customFormat="1">
-      <c r="A59" s="62" t="s">
+    <row r="59" spans="1:16" s="57" customFormat="1">
+      <c r="A59" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="62">
-        <v>0</v>
-      </c>
-      <c r="D59" s="62">
-        <v>1</v>
-      </c>
-      <c r="E59" s="62">
+      <c r="C59" s="58">
+        <v>0</v>
+      </c>
+      <c r="D59" s="58">
+        <v>1</v>
+      </c>
+      <c r="E59" s="58">
         <v>2892421</v>
       </c>
-      <c r="F59" s="62">
+      <c r="F59" s="58">
         <v>234</v>
       </c>
-      <c r="G59" s="62">
+      <c r="G59" s="58">
         <v>2892523</v>
       </c>
-      <c r="H59" s="62">
-        <v>1</v>
-      </c>
-      <c r="I59" s="62">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="69">
+      <c r="H59" s="58">
+        <v>1</v>
+      </c>
+      <c r="I59" s="58">
+        <f>ABS(D59-C59)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="65">
         <f>P59</f>
         <v>102</v>
       </c>
-      <c r="K59" s="62">
+      <c r="K59" s="58">
         <v>3</v>
       </c>
-      <c r="L59" s="71">
+      <c r="L59" s="67">
         <v>3</v>
       </c>
-      <c r="M59" s="69">
+      <c r="M59" s="65">
         <v>3</v>
       </c>
-      <c r="N59" s="61">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="61">
-        <f t="shared" si="21"/>
+      <c r="N59" s="57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="57">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="3"/>
+        <f>ABS(ABS(G59-E59)-ABS(0-C59))</f>
         <v>102</v>
       </c>
     </row>
@@ -3762,15 +3777,15 @@
         <v>1046382</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C60&gt;=E60,C60&lt;=F60),1,0)</f>
         <v>0</v>
       </c>
       <c r="I60" s="28">
-        <f t="shared" si="19"/>
+        <f>ABS(D60-C60)</f>
         <v>2121</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E60-C60)</f>
         <v>1953</v>
       </c>
       <c r="K60" s="4">
@@ -3783,11 +3798,11 @@
         <v>8</v>
       </c>
       <c r="N60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="O60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="P60" s="2"/>
@@ -3815,15 +3830,15 @@
         <v>3149584</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C61&gt;=E61,C61&lt;=F61),1,0)</f>
         <v>0</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="19"/>
+        <f>ABS(D61-C61)</f>
         <v>270</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E61-C61)</f>
         <v>8431</v>
       </c>
       <c r="K61" s="4">
@@ -3836,11 +3851,11 @@
         <v>3</v>
       </c>
       <c r="N61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="O61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P61" s="2"/>
@@ -3868,15 +3883,15 @@
         <v>1086784</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C62&gt;=E62,C62&lt;=F62),1,0)</f>
         <v>0</v>
       </c>
       <c r="I62" s="28">
-        <f t="shared" si="19"/>
+        <f>ABS(D62-C62)</f>
         <v>2769</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E62-C62)</f>
         <v>1287</v>
       </c>
       <c r="K62" s="4">
@@ -3889,11 +3904,11 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P62" s="2"/>
@@ -3921,15 +3936,15 @@
         <v>3031375</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C63&gt;=E63,C63&lt;=F63),1,0)</f>
         <v>0</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="19"/>
+        <f>ABS(D63-C63)</f>
         <v>40</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E63-C63)</f>
         <v>1463</v>
       </c>
       <c r="K63" s="4">
@@ -3942,11 +3957,11 @@
         <v>5</v>
       </c>
       <c r="N63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P63" s="2"/>
@@ -3974,15 +3989,15 @@
         <v>1046365</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="18"/>
+        <f>IF(AND(C64&gt;=E64,C64&lt;=F64),1,0)</f>
         <v>0</v>
       </c>
       <c r="I64" s="28">
-        <f t="shared" si="19"/>
+        <f>ABS(D64-C64)</f>
         <v>2485</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E64-C64)</f>
         <v>1619</v>
       </c>
       <c r="K64" s="4">
@@ -3995,11 +4010,11 @@
         <v>8</v>
       </c>
       <c r="N64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="O64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="P64" s="2"/>
@@ -4024,7 +4039,7 @@
         <v>21090.9</v>
       </c>
       <c r="K65" s="35">
-        <f t="shared" ref="J65:K65" si="22">AVERAGE(K55:K64)</f>
+        <f t="shared" ref="K65" si="14">AVERAGE(K55:K64)</f>
         <v>0.5</v>
       </c>
       <c r="L65" s="43">
@@ -4062,11 +4077,11 @@
         <v>0.6</v>
       </c>
       <c r="M66" s="12"/>
-      <c r="N66" s="56">
+      <c r="N66" s="73">
         <f>AVERAGE(N55:O64)</f>
         <v>4.75</v>
       </c>
-      <c r="O66" s="56"/>
+      <c r="O66" s="73"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16">
@@ -4129,15 +4144,15 @@
         <v>4809037</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" ref="H69:H78" si="23">IF(AND(C69&gt;=E69,C69&lt;=F69),1,0)</f>
+        <f>IF(AND(C69&gt;=E69,C69&lt;=F69),1,0)</f>
         <v>0</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ref="I69:I78" si="24">ABS(D69-C69)</f>
+        <f>ABS(D69-C69)</f>
         <v>56</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E69-C69)</f>
         <v>258</v>
       </c>
       <c r="K69" s="4">
@@ -4182,15 +4197,15 @@
         <v>4585229</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C70&gt;=E70,C70&lt;=F70),1,0)</f>
         <v>0</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D70-C70)</f>
         <v>83</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E70-C70)</f>
         <v>493</v>
       </c>
       <c r="K70" s="4">
@@ -4203,11 +4218,11 @@
         <v>4</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:N78" si="25">ABS(M70-K70)</f>
+        <f t="shared" ref="N70:N78" si="15">ABS(M70-K70)</f>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O78" si="26">ABS(M70-L70)</f>
+        <f t="shared" ref="O70:O78" si="16">ABS(M70-L70)</f>
         <v>2</v>
       </c>
       <c r="P70" s="2"/>
@@ -4235,15 +4250,15 @@
         <v>4858887</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C71&gt;=E71,C71&lt;=F71),1,0)</f>
         <v>0</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D71-C71)</f>
         <v>163</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E71-C71)</f>
         <v>739</v>
       </c>
       <c r="K71" s="4">
@@ -4256,11 +4271,11 @@
         <v>4</v>
       </c>
       <c r="N71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P71" s="2"/>
@@ -4288,15 +4303,15 @@
         <v>4879400</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C72&gt;=E72,C72&lt;=F72),1,0)</f>
         <v>0</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D72-C72)</f>
         <v>140</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E72-C72)</f>
         <v>436</v>
       </c>
       <c r="K72" s="4">
@@ -4309,11 +4324,11 @@
         <v>4</v>
       </c>
       <c r="N72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P72" s="2"/>
@@ -4341,15 +4356,15 @@
         <v>4878012</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C73&gt;=E73,C73&lt;=F73),1,0)</f>
         <v>0</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D73-C73)</f>
         <v>75</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E73-C73)</f>
         <v>501</v>
       </c>
       <c r="K73" s="4">
@@ -4362,11 +4377,11 @@
         <v>4</v>
       </c>
       <c r="N73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P73" s="2"/>
@@ -4394,15 +4409,15 @@
         <v>4827641</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C74&gt;=E74,C74&lt;=F74),1,0)</f>
         <v>0</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D74-C74)</f>
         <v>129</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E74-C74)</f>
         <v>447</v>
       </c>
       <c r="K74" s="4">
@@ -4415,11 +4430,11 @@
         <v>4</v>
       </c>
       <c r="N74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P74" s="2"/>
@@ -4447,15 +4462,15 @@
         <v>4888768</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C75&gt;=E75,C75&lt;=F75),1,0)</f>
         <v>0</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D75-C75)</f>
         <v>145</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E75-C75)</f>
         <v>721</v>
       </c>
       <c r="K75" s="4">
@@ -4468,11 +4483,11 @@
         <v>4</v>
       </c>
       <c r="N75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P75" s="2"/>
@@ -4500,15 +4515,15 @@
         <v>4685848</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C76&gt;=E76,C76&lt;=F76),1,0)</f>
         <v>0</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D76-C76)</f>
         <v>102</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E76-C76)</f>
         <v>474</v>
       </c>
       <c r="K76" s="4">
@@ -4521,11 +4536,11 @@
         <v>4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P76" s="2"/>
@@ -4553,15 +4568,15 @@
         <v>4711924</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C77&gt;=E77,C77&lt;=F77),1,0)</f>
         <v>0</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="24"/>
+        <f>ABS(D77-C77)</f>
         <v>158</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="4"/>
+        <f>ABS(E77-C77)</f>
         <v>734</v>
       </c>
       <c r="K77" s="4">
@@ -4574,11 +4589,11 @@
         <v>4</v>
       </c>
       <c r="N77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="P77" s="2"/>
@@ -4606,15 +4621,15 @@
         <v>4938076</v>
       </c>
       <c r="H78" s="10">
-        <f t="shared" si="23"/>
+        <f>IF(AND(C78&gt;=E78,C78&lt;=F78),1,0)</f>
         <v>0</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="24"/>
+        <f>ABS(D78-C78)</f>
         <v>468</v>
       </c>
       <c r="J78" s="30">
-        <f t="shared" si="4"/>
+        <f>ABS(E78-C78)</f>
         <v>3634901</v>
       </c>
       <c r="K78" s="10">
@@ -4627,11 +4642,11 @@
         <v>5</v>
       </c>
       <c r="N78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="O78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P78" s="2"/>
@@ -4652,11 +4667,11 @@
         <v>151.9</v>
       </c>
       <c r="J79" s="35">
-        <f t="shared" ref="J79:K79" si="27">AVERAGE(J69:J78)</f>
+        <f t="shared" ref="J79:K79" si="17">AVERAGE(J69:J78)</f>
         <v>363970.4</v>
       </c>
       <c r="K79" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>3.1</v>
       </c>
       <c r="L79" s="42">
@@ -4694,11 +4709,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="M80" s="12"/>
-      <c r="N80" s="56">
+      <c r="N80" s="73">
         <f>AVERAGE(N69:O78)</f>
         <v>1.4</v>
       </c>
-      <c r="O80" s="56"/>
+      <c r="O80" s="73"/>
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16">
@@ -4759,15 +4774,15 @@
         <v>1823511</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" ref="H83:H92" si="28">IF(AND(C83&gt;=E83,C83&lt;=F83),1,0)</f>
+        <f>IF(AND(C83&gt;=E83,C83&lt;=F83),1,0)</f>
         <v>1</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" ref="I83:I92" si="29">ABS(D83-C83)</f>
+        <f>ABS(D83-C83)</f>
         <v>99</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" ref="J83:J92" si="30">ABS(E83-C83)</f>
+        <f>ABS(E83-C83)</f>
         <v>414</v>
       </c>
       <c r="K83" s="5">
@@ -4812,15 +4827,15 @@
         <v>1860725</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C84&gt;=E84,C84&lt;=F84),1,0)</f>
         <v>0</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D84-C84)</f>
         <v>78</v>
       </c>
       <c r="J84" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E84-C84)</f>
         <v>61</v>
       </c>
       <c r="K84" s="5">
@@ -4833,11 +4848,11 @@
         <v>6</v>
       </c>
       <c r="N84">
-        <f t="shared" ref="N84:N92" si="31">ABS(M84-K84)</f>
+        <f t="shared" ref="N84:N92" si="18">ABS(M84-K84)</f>
         <v>5</v>
       </c>
       <c r="O84">
-        <f t="shared" ref="O84:O92" si="32">ABS(M84-L84)</f>
+        <f t="shared" ref="O84:O92" si="19">ABS(M84-L84)</f>
         <v>6</v>
       </c>
       <c r="P84" s="2"/>
@@ -4865,15 +4880,15 @@
         <v>2135342</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C85&gt;=E85,C85&lt;=F85),1,0)</f>
         <v>0</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D85-C85)</f>
         <v>89</v>
       </c>
       <c r="J85" s="28">
-        <f t="shared" si="30"/>
+        <f>ABS(E85-C85)</f>
         <v>16448</v>
       </c>
       <c r="K85" s="5">
@@ -4886,11 +4901,11 @@
         <v>3</v>
       </c>
       <c r="N85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="O85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="P85" s="2"/>
@@ -4918,15 +4933,15 @@
         <v>1877693</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C86&gt;=E86,C86&lt;=F86),1,0)</f>
         <v>1</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D86-C86)</f>
         <v>107</v>
       </c>
       <c r="J86" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E86-C86)</f>
         <v>406</v>
       </c>
       <c r="K86" s="5">
@@ -4939,11 +4954,11 @@
         <v>9</v>
       </c>
       <c r="N86">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="O86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P86" s="2"/>
@@ -4971,15 +4986,15 @@
         <v>1884562</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C87&gt;=E87,C87&lt;=F87),1,0)</f>
         <v>1</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D87-C87)</f>
         <v>12</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E87-C87)</f>
         <v>76</v>
       </c>
       <c r="K87" s="5">
@@ -4992,11 +5007,11 @@
         <v>3</v>
       </c>
       <c r="N87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="O87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P87" s="2"/>
@@ -5024,15 +5039,15 @@
         <v>1809823</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C88&gt;=E88,C88&lt;=F88),1,0)</f>
         <v>0</v>
       </c>
       <c r="I88" s="10">
-        <f t="shared" si="29"/>
+        <f>ABS(D88-C88)</f>
         <v>50</v>
       </c>
       <c r="J88" s="30">
-        <f t="shared" si="30"/>
+        <f>ABS(E88-C88)</f>
         <v>665803</v>
       </c>
       <c r="K88" s="11">
@@ -5045,11 +5060,11 @@
         <v>9</v>
       </c>
       <c r="N88">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="O88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P88" s="2"/>
@@ -5077,15 +5092,15 @@
         <v>1843731</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C89&gt;=E89,C89&lt;=F89),1,0)</f>
         <v>1</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D89-C89)</f>
         <v>73</v>
       </c>
       <c r="J89" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E89-C89)</f>
         <v>440</v>
       </c>
       <c r="K89" s="5">
@@ -5098,11 +5113,11 @@
         <v>9</v>
       </c>
       <c r="N89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="O89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P89" s="2"/>
@@ -5130,15 +5145,15 @@
         <v>1851618</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C90&gt;=E90,C90&lt;=F90),1,0)</f>
         <v>1</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D90-C90)</f>
         <v>38</v>
       </c>
       <c r="J90" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E90-C90)</f>
         <v>373</v>
       </c>
       <c r="K90" s="5">
@@ -5151,11 +5166,11 @@
         <v>8</v>
       </c>
       <c r="N90">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="O90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="P90" s="2"/>
@@ -5183,15 +5198,15 @@
         <v>1859582</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C91&gt;=E91,C91&lt;=F91),1,0)</f>
         <v>0</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D91-C91)</f>
         <v>78</v>
       </c>
       <c r="J91" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E91-C91)</f>
         <v>61</v>
       </c>
       <c r="K91" s="5">
@@ -5204,11 +5219,11 @@
         <v>9</v>
       </c>
       <c r="N91">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="O91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P91" s="2"/>
@@ -5236,15 +5251,15 @@
         <v>1869610</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="28"/>
+        <f>IF(AND(C92&gt;=E92,C92&lt;=F92),1,0)</f>
         <v>0</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="29"/>
+        <f>ABS(D92-C92)</f>
         <v>78</v>
       </c>
       <c r="J92" s="4">
-        <f t="shared" si="30"/>
+        <f>ABS(E92-C92)</f>
         <v>61</v>
       </c>
       <c r="K92" s="5">
@@ -5257,11 +5272,11 @@
         <v>9</v>
       </c>
       <c r="N92">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="O92">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="P92" s="2"/>
@@ -5324,11 +5339,11 @@
         <v>0.5</v>
       </c>
       <c r="M94" s="12"/>
-      <c r="N94" s="56">
+      <c r="N94" s="73">
         <f>AVERAGE(N83:O92)</f>
         <v>6.95</v>
       </c>
-      <c r="O94" s="56"/>
+      <c r="O94" s="73"/>
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16">
@@ -5435,11 +5450,11 @@
       <c r="L98" s="33">
         <v>0</v>
       </c>
-      <c r="N98" s="55">
+      <c r="N98" s="72">
         <f>AVERAGE(N97:O97)</f>
         <v>0</v>
       </c>
-      <c r="O98" s="55"/>
+      <c r="O98" s="72"/>
     </row>
     <row r="99" spans="1:16">
       <c r="H99" s="32"/>
@@ -5631,22 +5646,110 @@
     </row>
     <row r="112" spans="1:16">
       <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="76">
+        <f>AVERAGE(191,152,115,70)</f>
+        <v>132</v>
+      </c>
+      <c r="C112" s="68">
+        <f>AVERAGE(117,534,3073,237)</f>
+        <v>990.25</v>
+      </c>
+      <c r="F112" s="68">
+        <f>AVERAGE(F108:F111)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="52">
+      <c r="B114" s="52">
         <v>467</v>
       </c>
-      <c r="C112" s="52">
+      <c r="C114" s="52">
         <v>106176</v>
       </c>
-      <c r="D112" s="52">
-        <v>0</v>
-      </c>
-      <c r="E112" s="52">
-        <v>0</v>
-      </c>
-      <c r="F112" s="52">
-        <v>0</v>
+      <c r="D114" s="52">
+        <v>0</v>
+      </c>
+      <c r="E114" s="52">
+        <v>0</v>
+      </c>
+      <c r="F114" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="16">
+        <v>3925500</v>
+      </c>
+      <c r="D119">
+        <v>3925744</v>
+      </c>
+      <c r="E119" s="16">
+        <v>4641652</v>
+      </c>
+      <c r="F119">
+        <f>D119-C119</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="B120" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="56">
+        <v>3628500</v>
+      </c>
+      <c r="D120" s="57">
+        <v>1</v>
+      </c>
+      <c r="E120" s="56">
+        <v>3654135</v>
+      </c>
+      <c r="F120">
+        <f>ABS(ABS(E120-C120)-ABS(0-D120))</f>
+        <v>25634</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="16">
+        <v>720300</v>
+      </c>
+      <c r="D121">
+        <v>719988</v>
+      </c>
+      <c r="E121" s="16">
+        <v>1042519</v>
+      </c>
+      <c r="F121">
+        <f>C121-D121</f>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
